--- a/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
+++ b/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Projects/Adjective Ordering/AOR_PerceptionMemory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Monica/Documents/GitHub/AOR_Perception/PerceptionRating/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PerceptionMemory_Items" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="191">
   <si>
     <t>ItemNumb</t>
   </si>
@@ -583,6 +583,27 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>couch</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>leather</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>table</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2437,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2772,7 +2793,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2893,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2938,6 +2959,15 @@
       <c r="C2" t="s">
         <v>145</v>
       </c>
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" t="s">
         <v>182</v>
@@ -3208,6 +3238,9 @@
       <c r="C20" t="s">
         <v>163</v>
       </c>
+      <c r="D20" t="s">
+        <v>184</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" t="s">
         <v>182</v>
@@ -3223,6 +3256,9 @@
       <c r="C21" t="s">
         <v>164</v>
       </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" t="s">
         <v>183</v>
@@ -3238,6 +3274,9 @@
       <c r="C22" t="s">
         <v>165</v>
       </c>
+      <c r="D22" t="s">
+        <v>190</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" t="s">
         <v>183</v>
@@ -3297,6 +3336,9 @@
       </c>
       <c r="C26" t="s">
         <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>188</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" t="s">
@@ -3480,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
+++ b/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Monica/Documents/GitHub/AOR_Perception/PerceptionRating/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayat\Documents\GG\College Stuff\Research\Monica's Lab\Perception Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15144138-AD17-4750-8C86-1754829A4FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerceptionMemory_Items" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,18 @@
     <sheet name="TarGen" sheetId="6" r:id="rId4"/>
     <sheet name="LatinSquare" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="285">
   <si>
     <t>ItemNumb</t>
   </si>
@@ -597,31 +606,308 @@
     <t>leather</t>
   </si>
   <si>
-    <t>ship</t>
-  </si>
-  <si>
     <t>bottle</t>
   </si>
   <si>
     <t>table</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>silk</t>
+  </si>
+  <si>
+    <t>boa</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>feather</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>vase</t>
+  </si>
+  <si>
+    <t>porcelain</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>magnet</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>rectangular</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>oval</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>heart-shaped</t>
+  </si>
+  <si>
+    <t>eraser</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>triangular</t>
+  </si>
+  <si>
+    <t>stop sign</t>
+  </si>
+  <si>
+    <t>octagonal</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>maroon</t>
+  </si>
+  <si>
+    <t>woollen</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>turquoise</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>notebook</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>beanstalk</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>indigo</t>
+  </si>
+  <si>
+    <t>circular</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>cylindrical</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>horseshoe</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>spherical</t>
+  </si>
+  <si>
+    <t>penny</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>blot</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>star-shaped</t>
+  </si>
+  <si>
+    <t>sock</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>colossal</t>
+  </si>
+  <si>
+    <t>bucket</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>bubble</t>
+  </si>
+  <si>
+    <t>wee</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>cardbox</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>miniscule</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>foam</t>
+  </si>
+  <si>
+    <t>pool noodle</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>tower</t>
+  </si>
+  <si>
+    <t>marble</t>
+  </si>
+  <si>
+    <t>teensy</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>massive</t>
+  </si>
+  <si>
+    <t>trapezoidal</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>spiral</t>
+  </si>
+  <si>
+    <t>doorway</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>arched</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>gigantic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -646,7 +932,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,6 +942,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -923,16 +1212,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +1244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -978,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1001,7 +1290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1024,7 +1313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1047,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1070,7 +1359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1093,7 +1382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1116,7 +1405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1139,7 +1428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1162,7 +1451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1185,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1208,7 +1497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1231,7 +1520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1254,7 +1543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1277,7 +1566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1300,7 +1589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1323,7 +1612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1346,7 +1635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1369,7 +1658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1392,7 +1681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1415,7 +1704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1438,7 +1727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1461,7 +1750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1484,7 +1773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1507,7 +1796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1530,7 +1819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1553,7 +1842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1576,7 +1865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1599,7 +1888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1622,7 +1911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1645,7 +1934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1668,7 +1957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1691,7 +1980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1714,7 +2003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1737,7 +2026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1760,7 +2049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1783,7 +2072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1806,7 +2095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1829,7 +2118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1852,7 +2141,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1875,7 +2164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1898,7 +2187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1921,7 +2210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1944,7 +2233,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1967,7 +2256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1990,7 +2279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2013,7 +2302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2036,7 +2325,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2059,7 +2348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2082,7 +2371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2105,7 +2394,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2128,7 +2417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2151,7 +2440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2174,7 +2463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2197,7 +2486,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2220,7 +2509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2243,7 +2532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2266,7 +2555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2289,7 +2578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2312,7 +2601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2335,7 +2624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2358,7 +2647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2381,7 +2670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2404,7 +2693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2433,16 +2722,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -2453,7 +2742,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2464,7 +2753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2475,7 +2764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2486,7 +2775,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2497,7 +2786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2508,7 +2797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2519,7 +2808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2530,7 +2819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2541,7 +2830,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2555,7 +2844,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2572,7 +2861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2583,7 +2872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2597,7 +2886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2608,7 +2897,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2619,7 +2908,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2630,7 +2919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2641,7 +2930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2652,7 +2941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2663,7 +2952,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2674,7 +2963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2685,7 +2974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2696,7 +2985,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2707,7 +2996,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2718,7 +3007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2729,7 +3018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2740,7 +3029,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2751,7 +3040,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2759,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2767,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2775,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2789,20 +3078,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -2816,7 +3105,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2830,7 +3119,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2844,7 +3133,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2858,7 +3147,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2872,7 +3161,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2886,7 +3175,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2900,7 +3189,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2911,16 +3200,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -2949,7 +3238,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2968,12 +3257,19 @@
       <c r="F2" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="G2" t="str">
+        <f>E2&amp;" "&amp;F2&amp;" "&amp;D2</f>
+        <v>brown leather couch</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>F2&amp;" "&amp;E2&amp;" "&amp;D2</f>
+        <v>leather brown couch</v>
+      </c>
       <c r="I2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2983,12 +3279,28 @@
       <c r="C3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G37" si="0">E3&amp;" "&amp;F3&amp;" "&amp;D3</f>
+        <v>violet silk dress</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H37" si="1">F3&amp;" "&amp;E3&amp;" "&amp;D3</f>
+        <v>silk violet dress</v>
+      </c>
       <c r="I3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2998,12 +3310,28 @@
       <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>pink feather boa</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>feather pink boa</v>
+      </c>
       <c r="I4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3013,12 +3341,28 @@
       <c r="C5" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>maroon woollen sweater</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>woollen maroon sweater</v>
+      </c>
       <c r="I5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3028,12 +3372,28 @@
       <c r="C6" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>brown wood table</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wood brown table</v>
+      </c>
       <c r="I6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3043,12 +3403,28 @@
       <c r="C7" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>blue porcelain vase</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>porcelain blue vase</v>
+      </c>
       <c r="I7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3058,12 +3434,28 @@
       <c r="C8" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="D8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>purple spherical ball</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>spherical purple ball</v>
+      </c>
       <c r="I8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3073,12 +3465,28 @@
       <c r="C9" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>yellow rectangular door</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>rectangular yellow door</v>
+      </c>
       <c r="I9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3088,12 +3496,28 @@
       <c r="C10" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>white oval egg</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>oval white egg</v>
+      </c>
       <c r="I10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3103,12 +3527,28 @@
       <c r="C11" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>red heart-shaped strawberry</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>heart-shaped red strawberry</v>
+      </c>
       <c r="I11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3118,12 +3558,28 @@
       <c r="C12" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>orange triangular eraser</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>triangular orange eraser</v>
+      </c>
       <c r="I12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3133,12 +3589,28 @@
       <c r="C13" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>red octagonal stop sign</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>octagonal red stop sign</v>
+      </c>
       <c r="I13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3148,12 +3620,28 @@
       <c r="C14" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>gray big house</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>big gray house</v>
+      </c>
       <c r="I14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3163,12 +3651,28 @@
       <c r="C15" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>golden colossal sun</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>colossal golden sun</v>
+      </c>
       <c r="I15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3178,12 +3682,28 @@
       <c r="C16" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>turquoise tiny button</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>tiny turquoise button</v>
+      </c>
       <c r="I16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3193,12 +3713,28 @@
       <c r="C17" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>black small shoes</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>small black shoes</v>
+      </c>
       <c r="I17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3208,12 +3744,28 @@
       <c r="C18" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>indigo large notebook</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>large indigo notebook</v>
+      </c>
       <c r="I18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3223,12 +3775,28 @@
       <c r="C19" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="D19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>green giant beanstalk</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>giant green beanstalk</v>
+      </c>
       <c r="I19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3241,12 +3809,25 @@
       <c r="D20" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="E20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>circular clay plate</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clay circular plate</v>
+      </c>
       <c r="I20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3257,14 +3838,27 @@
         <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="E21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>cylindrical glass bottle</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>glass cylindrical bottle</v>
+      </c>
       <c r="I21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3275,14 +3869,27 @@
         <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="E22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>square stone table</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>stone square table</v>
+      </c>
       <c r="I22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3292,12 +3899,28 @@
       <c r="C23" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>horseshoe iron magnet</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>iron horseshoe magnet</v>
+      </c>
       <c r="I23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3307,12 +3930,28 @@
       <c r="C24" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="D24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>round copper penny</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>copper round penny</v>
+      </c>
       <c r="I24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3322,12 +3961,28 @@
       <c r="C25" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="D25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>star-shaped ink blot</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ink star-shaped blot</v>
+      </c>
       <c r="I25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3338,14 +3993,27 @@
         <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="E26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>little cotton sock</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cotton little sock</v>
+      </c>
       <c r="I26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3355,12 +4023,28 @@
       <c r="C27" t="s">
         <v>170</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>long foam pool noodle</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>foam long pool noodle</v>
+      </c>
       <c r="I27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3370,12 +4054,28 @@
       <c r="C28" t="s">
         <v>171</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>huge plastic bucket</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>plastic huge bucket</v>
+      </c>
       <c r="I28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3385,12 +4085,28 @@
       <c r="C29" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>wee soap bubble</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>soap wee bubble</v>
+      </c>
       <c r="I29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3400,12 +4116,28 @@
       <c r="C30" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="D30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>medium cardbox box</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cardbox medium box</v>
+      </c>
       <c r="I30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3415,12 +4147,28 @@
       <c r="C31" t="s">
         <v>174</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="D31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>miniscule paper doll</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>paper miniscule doll</v>
+      </c>
       <c r="I31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3430,12 +4178,28 @@
       <c r="C32" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>short circular tower</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>circular short tower</v>
+      </c>
       <c r="I32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3445,12 +4209,28 @@
       <c r="C33" t="s">
         <v>176</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="D33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>teensy spherical marble</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>spherical teensy marble</v>
+      </c>
       <c r="I33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3460,12 +4240,28 @@
       <c r="C34" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="D34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>massive trapezoidal bridge</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>trapezoidal massive bridge</v>
+      </c>
       <c r="I34" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3475,12 +4271,28 @@
       <c r="C35" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="D35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>short spiral staircase</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>spiral short staircase</v>
+      </c>
       <c r="I35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3490,12 +4302,28 @@
       <c r="C36" t="s">
         <v>179</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="D36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>narrow arched doorway</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>arched narrow doorway</v>
+      </c>
       <c r="I36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3505,30 +4333,47 @@
       <c r="C37" t="s">
         <v>180</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="D37" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>gigantic square cake</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>square gigantic cake</v>
+      </c>
       <c r="I37" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="H33:I37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H33:I37">
     <sortCondition ref="H32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3551,7 +4396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3574,7 +4419,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3597,7 +4442,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3620,7 +4465,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3643,7 +4488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3666,7 +4511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3689,7 +4534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3712,7 +4557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3735,7 +4580,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3758,7 +4603,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3781,7 +4626,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3804,7 +4649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3827,7 +4672,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3850,7 +4695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3873,7 +4718,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3896,7 +4741,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3919,7 +4764,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3942,7 +4787,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -3965,7 +4810,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3988,7 +4833,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4011,7 +4856,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4034,7 +4879,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4057,7 +4902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4080,7 +4925,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4103,7 +4948,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4126,7 +4971,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4149,7 +4994,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4172,7 +5017,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4195,7 +5040,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4218,7 +5063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4241,7 +5086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4264,7 +5109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -4287,7 +5132,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -4310,7 +5155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -4333,7 +5178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -4356,7 +5201,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>

--- a/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
+++ b/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayat\Documents\GG\College Stuff\Research\Monica's Lab\Perception Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Monica/Documents/GitHub/AOR_Perception/PerceptionRating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15144138-AD17-4750-8C86-1754829A4FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PerceptionMemory_Items" sheetId="1" r:id="rId1"/>
@@ -19,10 +18,13 @@
     <sheet name="TarGen" sheetId="6" r:id="rId4"/>
     <sheet name="LatinSquare" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,15 +34,12 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="314">
   <si>
     <t>ItemNumb</t>
   </si>
@@ -657,9 +656,6 @@
     <t>round</t>
   </si>
   <si>
-    <t>magnet</t>
-  </si>
-  <si>
     <t>door</t>
   </si>
   <si>
@@ -777,12 +773,6 @@
     <t>stone</t>
   </si>
   <si>
-    <t>horseshoe</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
     <t>spherical</t>
   </si>
   <si>
@@ -895,12 +885,108 @@
   </si>
   <si>
     <t>gigantic</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Weird: Why say octagonal when all (american?) stop signs are octagonal</t>
+  </si>
+  <si>
+    <t>Weird</t>
+  </si>
+  <si>
+    <t>Weird: Overspecification</t>
+  </si>
+  <si>
+    <t>I think ink blot might be a single word. What about something like "ink stain" / or "grease stain"</t>
+  </si>
+  <si>
+    <t>Maybe use tower for something with material and replace it here. Could be a concrete tower, granite tower?</t>
+  </si>
+  <si>
+    <t>ColTex</t>
+  </si>
+  <si>
+    <t>Weird: trapezoidal is too infrequent a word and I'm not sure what it means for a bridge to be trapezoidal</t>
+  </si>
+  <si>
+    <t>maybe use 'oblong' instead of spherical, since all balls are spherical</t>
+  </si>
+  <si>
+    <t>Weird: Overspecification, all pennies are round and copper; you can maybe replace penny with coin and then copper is ok, but round is still weird</t>
+  </si>
+  <si>
+    <t>even if you change spherical above, this is also weird because all marbles are spherical</t>
+  </si>
+  <si>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>leathery</t>
+  </si>
+  <si>
+    <t>silky</t>
+  </si>
+  <si>
+    <t>feathery</t>
+  </si>
+  <si>
+    <t>wooden</t>
+  </si>
+  <si>
+    <t>porcelain????</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>Replace pool noodle, depending on your linguistic theory, pool might be an adjective for kind of noodle</t>
+  </si>
+  <si>
+    <t>You can also use this with jacket and save couch for something else</t>
+  </si>
+  <si>
+    <t>Weird: Why say oval when all eggs are oval; maybe use egg-shaped as the shape?</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>velvety</t>
+  </si>
+  <si>
+    <t>watery</t>
+  </si>
+  <si>
+    <t>velvet</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>foamy</t>
+  </si>
+  <si>
+    <t>papery</t>
+  </si>
+  <si>
+    <t>soapy</t>
+  </si>
+  <si>
+    <t>coppery</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>sand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -910,12 +996,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -930,9 +1028,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,14 +1316,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1865,7 +1969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1888,7 +1992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1911,7 +2015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1934,7 +2038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1957,7 +2061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1980,7 +2084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2003,7 +2107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2026,7 +2130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2049,7 +2153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2072,7 +2176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2095,7 +2199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2118,7 +2222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2141,7 +2245,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2164,7 +2268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2187,7 +2291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2210,7 +2314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2233,7 +2337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2256,7 +2360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2279,7 +2383,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2302,7 +2406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2325,7 +2429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2348,7 +2452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2371,7 +2475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2394,7 +2498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2417,7 +2521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2440,7 +2544,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2463,7 +2567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2486,7 +2590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2509,7 +2613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2532,7 +2636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2555,7 +2659,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2578,7 +2682,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2601,7 +2705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2624,7 +2728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2647,7 +2751,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2670,7 +2774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2693,7 +2797,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2722,14 +2826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3078,17 +3182,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,6 +3296,92 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3200,16 +3390,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="8" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3237,8 +3430,11 @@
       <c r="I1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3268,8 +3464,11 @@
       <c r="I2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3283,7 +3482,7 @@
         <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>192</v>
@@ -3300,7 +3499,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3331,7 +3530,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3342,27 +3541,27 @@
         <v>148</v>
       </c>
       <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
         <v>219</v>
       </c>
-      <c r="E5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" t="s">
-        <v>221</v>
+      <c r="F5" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>maroon woollen sweater</v>
+        <v>maroon wool sweater</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>woollen maroon sweater</v>
+        <v>wool maroon sweater</v>
       </c>
       <c r="I5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3393,7 +3592,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3424,7 +3623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3441,21 +3640,24 @@
         <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" t="str">
+        <v>244</v>
+      </c>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>purple spherical ball</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>spherical purple ball</v>
       </c>
       <c r="I8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3466,13 +3668,13 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -3486,7 +3688,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3497,27 +3699,30 @@
         <v>153</v>
       </c>
       <c r="D10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" t="s">
         <v>210</v>
       </c>
-      <c r="E10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" t="str">
+      <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>white oval egg</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>oval white egg</v>
       </c>
       <c r="I10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3528,13 +3733,13 @@
         <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
         <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -3548,7 +3753,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3559,13 +3764,13 @@
         <v>155</v>
       </c>
       <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
         <v>214</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>215</v>
-      </c>
-      <c r="F12" t="s">
-        <v>216</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -3579,7 +3784,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3590,27 +3795,30 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
         <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" t="str">
+        <v>217</v>
+      </c>
+      <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>red octagonal stop sign</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>octagonal red stop sign</v>
       </c>
       <c r="I13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3624,10 +3832,10 @@
         <v>196</v>
       </c>
       <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" t="s">
-        <v>223</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -3641,7 +3849,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3652,27 +3860,30 @@
         <v>158</v>
       </c>
       <c r="D15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" t="s">
         <v>224</v>
       </c>
-      <c r="E15" t="s">
-        <v>225</v>
-      </c>
       <c r="F15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G15" t="str">
+        <v>254</v>
+      </c>
+      <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>golden colossal sun</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>colossal golden sun</v>
       </c>
       <c r="I15" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3683,13 +3894,13 @@
         <v>159</v>
       </c>
       <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" t="s">
         <v>227</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>228</v>
-      </c>
-      <c r="F16" t="s">
-        <v>229</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -3703,7 +3914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3714,13 +3925,13 @@
         <v>160</v>
       </c>
       <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" t="s">
         <v>230</v>
-      </c>
-      <c r="E17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" t="s">
-        <v>231</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -3734,7 +3945,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3745,13 +3956,13 @@
         <v>161</v>
       </c>
       <c r="D18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" t="s">
         <v>233</v>
-      </c>
-      <c r="E18" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" t="s">
-        <v>234</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -3765,7 +3976,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3776,13 +3987,13 @@
         <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" t="s">
         <v>191</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -3796,7 +4007,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3810,10 +4021,10 @@
         <v>184</v>
       </c>
       <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
         <v>239</v>
-      </c>
-      <c r="F20" t="s">
-        <v>240</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -3827,7 +4038,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3841,10 +4052,10 @@
         <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -3858,7 +4069,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3872,10 +4083,10 @@
         <v>189</v>
       </c>
       <c r="E22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" t="s">
         <v>243</v>
-      </c>
-      <c r="F22" t="s">
-        <v>244</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -3889,7 +4100,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3900,27 +4111,27 @@
         <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" t="str">
+        <v>270</v>
+      </c>
+      <c r="G23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>horseshoe iron magnet</v>
-      </c>
-      <c r="H23" s="1" t="str">
+        <v>round marble statue</v>
+      </c>
+      <c r="H23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>iron horseshoe magnet</v>
+        <v>marble round statue</v>
       </c>
       <c r="I23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3931,27 +4142,30 @@
         <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
         <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
-      </c>
-      <c r="G24" t="str">
+        <v>246</v>
+      </c>
+      <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>round copper penny</v>
       </c>
-      <c r="H24" s="1" t="str">
+      <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>copper round penny</v>
       </c>
       <c r="I24" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3962,27 +4176,30 @@
         <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" t="str">
+        <v>248</v>
+      </c>
+      <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>star-shaped ink blot</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ink star-shaped blot</v>
       </c>
       <c r="I25" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3993,13 +4210,13 @@
         <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -4013,7 +4230,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4023,14 +4240,14 @@
       <c r="C27" t="s">
         <v>170</v>
       </c>
-      <c r="D27" t="s">
-        <v>270</v>
+      <c r="D27" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -4043,8 +4260,11 @@
       <c r="I27" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4055,13 +4275,13 @@
         <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -4075,7 +4295,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4086,27 +4306,30 @@
         <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G29" t="str">
+        <v>259</v>
+      </c>
+      <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wee soap bubble</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>soap wee bubble</v>
       </c>
       <c r="I29" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4117,13 +4340,13 @@
         <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -4137,7 +4360,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4148,13 +4371,13 @@
         <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -4168,7 +4391,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4179,27 +4402,30 @@
         <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
-      </c>
-      <c r="G32" t="str">
+        <v>238</v>
+      </c>
+      <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>short circular tower</v>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>circular short tower</v>
       </c>
       <c r="I32" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4210,27 +4436,30 @@
         <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G33" t="str">
+        <v>244</v>
+      </c>
+      <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>teensy spherical marble</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>spherical teensy marble</v>
       </c>
       <c r="I33" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4241,27 +4470,30 @@
         <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
-      </c>
-      <c r="G34" t="str">
+        <v>274</v>
+      </c>
+      <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>massive trapezoidal bridge</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>trapezoidal massive bridge</v>
       </c>
       <c r="I34" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4272,13 +4504,13 @@
         <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -4292,7 +4524,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4303,13 +4535,13 @@
         <v>179</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -4323,7 +4555,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4334,13 +4566,13 @@
         <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -4354,8 +4586,23 @@
         <v>182</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H33:I37">
+  <sortState ref="H33:I37">
     <sortCondition ref="H32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4364,14 +4611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5017,7 +5264,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5040,7 +5287,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5063,7 +5310,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5086,7 +5333,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5109,7 +5356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -5132,7 +5379,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -5155,7 +5402,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -5178,7 +5425,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -5201,7 +5448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>

--- a/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
+++ b/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PerceptionMemory_Items" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="326">
   <si>
     <t>ItemNumb</t>
   </si>
@@ -689,12 +689,6 @@
     <t>triangular</t>
   </si>
   <si>
-    <t>stop sign</t>
-  </si>
-  <si>
-    <t>octagonal</t>
-  </si>
-  <si>
     <t>sweater</t>
   </si>
   <si>
@@ -842,9 +836,6 @@
     <t>foam</t>
   </si>
   <si>
-    <t>pool noodle</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
@@ -902,9 +893,6 @@
     <t>I think ink blot might be a single word. What about something like "ink stain" / or "grease stain"</t>
   </si>
   <si>
-    <t>Maybe use tower for something with material and replace it here. Could be a concrete tower, granite tower?</t>
-  </si>
-  <si>
     <t>ColTex</t>
   </si>
   <si>
@@ -981,6 +969,54 @@
   </si>
   <si>
     <t>sand</t>
+  </si>
+  <si>
+    <t>greasy</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>You had used tower for something else. But it might be better to use with material: concrete tower, granite tower? Or something else? Shape?</t>
+  </si>
+  <si>
+    <t>This a good one for shape</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>maybe use with sign</t>
+  </si>
+  <si>
+    <t>shape!</t>
+  </si>
+  <si>
+    <t>oblong</t>
+  </si>
+  <si>
+    <t>curved</t>
   </si>
 </sst>
 </file>
@@ -3183,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3300,88 +3336,93 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>312</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3391,10 +3432,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3431,7 +3472,7 @@
         <v>181</v>
       </c>
       <c r="J1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3465,7 +3506,7 @@
         <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3482,17 +3523,17 @@
         <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
         <v>192</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G37" si="0">E3&amp;" "&amp;F3&amp;" "&amp;D3</f>
+        <f t="shared" ref="G3:G38" si="0">E3&amp;" "&amp;F3&amp;" "&amp;D3</f>
         <v>violet silk dress</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H37" si="1">F3&amp;" "&amp;E3&amp;" "&amp;D3</f>
+        <f t="shared" ref="H3:H38" si="1">F3&amp;" "&amp;E3&amp;" "&amp;D3</f>
         <v>silk violet dress</v>
       </c>
       <c r="I3" t="s">
@@ -3541,13 +3582,13 @@
         <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -3640,7 +3681,7 @@
         <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3654,7 +3695,7 @@
         <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3719,7 +3760,7 @@
         <v>183</v>
       </c>
       <c r="J10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3794,28 +3835,22 @@
       <c r="C13" t="s">
         <v>156</v>
       </c>
-      <c r="D13" t="s">
-        <v>216</v>
-      </c>
       <c r="E13" t="s">
         <v>197</v>
       </c>
-      <c r="F13" t="s">
-        <v>217</v>
-      </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>red octagonal stop sign</v>
+        <v xml:space="preserve">red  </v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>octagonal red stop sign</v>
+        <v xml:space="preserve"> red </v>
       </c>
       <c r="I13" t="s">
         <v>182</v>
       </c>
       <c r="J13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3832,10 +3867,10 @@
         <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -3860,13 +3895,13 @@
         <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3880,7 +3915,7 @@
         <v>182</v>
       </c>
       <c r="J15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3894,13 +3929,13 @@
         <v>159</v>
       </c>
       <c r="D16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" t="s">
         <v>226</v>
-      </c>
-      <c r="E16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" t="s">
-        <v>228</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -3925,13 +3960,13 @@
         <v>160</v>
       </c>
       <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" t="s">
         <v>229</v>
       </c>
-      <c r="E17" t="s">
-        <v>231</v>
-      </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -3956,13 +3991,13 @@
         <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -3987,13 +4022,13 @@
         <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
         <v>191</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -4021,10 +4056,10 @@
         <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -4052,10 +4087,10 @@
         <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -4083,10 +4118,10 @@
         <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -4111,13 +4146,13 @@
         <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E23" t="s">
         <v>204</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4142,13 +4177,13 @@
         <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
         <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4162,7 +4197,7 @@
         <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4176,13 +4211,13 @@
         <v>168</v>
       </c>
       <c r="D25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" t="s">
         <v>247</v>
       </c>
-      <c r="E25" t="s">
-        <v>249</v>
-      </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4196,7 +4231,7 @@
         <v>183</v>
       </c>
       <c r="J25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4210,13 +4245,13 @@
         <v>169</v>
       </c>
       <c r="D26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" t="s">
         <v>250</v>
-      </c>
-      <c r="E26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" t="s">
-        <v>252</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -4240,28 +4275,26 @@
       <c r="C27" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>long foam pool noodle</v>
+        <v xml:space="preserve">long foam </v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>foam long pool noodle</v>
+        <v xml:space="preserve">foam long </v>
       </c>
       <c r="I27" t="s">
         <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4275,13 +4308,13 @@
         <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -4306,13 +4339,13 @@
         <v>172</v>
       </c>
       <c r="D29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" t="s">
         <v>257</v>
-      </c>
-      <c r="E29" t="s">
-        <v>258</v>
-      </c>
-      <c r="F29" t="s">
-        <v>259</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4326,7 +4359,7 @@
         <v>182</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -4340,13 +4373,13 @@
         <v>173</v>
       </c>
       <c r="D30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" t="s">
         <v>260</v>
       </c>
-      <c r="E30" t="s">
-        <v>262</v>
-      </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -4371,13 +4404,13 @@
         <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -4402,27 +4435,24 @@
         <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="E32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>short circular tower</v>
+        <v>short circular container</v>
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>circular short tower</v>
+        <v>circular short container</v>
       </c>
       <c r="I32" t="s">
         <v>182</v>
-      </c>
-      <c r="J32" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -4436,13 +4466,13 @@
         <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4456,7 +4486,7 @@
         <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4470,13 +4500,13 @@
         <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4490,7 +4520,7 @@
         <v>183</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4504,13 +4534,13 @@
         <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -4535,13 +4565,13 @@
         <v>179</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -4566,13 +4596,13 @@
         <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -4587,18 +4617,92 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
-        <v>306</v>
-      </c>
+      <c r="D38" t="s">
+        <v>312</v>
+      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
-        <v>307</v>
+      <c r="D39" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>314</v>
+      </c>
+      <c r="J41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>324</v>
+      </c>
+      <c r="E50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>325</v>
+      </c>
+      <c r="E51" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
+++ b/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="330">
   <si>
     <t>ItemNumb</t>
   </si>
@@ -1010,13 +1010,25 @@
     <t>maybe use with sign</t>
   </si>
   <si>
-    <t>shape!</t>
-  </si>
-  <si>
     <t>oblong</t>
   </si>
   <si>
     <t>curved</t>
+  </si>
+  <si>
+    <t>boxy</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>granite</t>
   </si>
 </sst>
 </file>
@@ -3432,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3529,11 +3541,11 @@
         <v>192</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G38" si="0">E3&amp;" "&amp;F3&amp;" "&amp;D3</f>
+        <f t="shared" ref="G3:G37" si="0">E3&amp;" "&amp;F3&amp;" "&amp;D3</f>
         <v>violet silk dress</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H38" si="1">F3&amp;" "&amp;E3&amp;" "&amp;D3</f>
+        <f t="shared" ref="H3:H37" si="1">F3&amp;" "&amp;E3&amp;" "&amp;D3</f>
         <v>silk violet dress</v>
       </c>
       <c r="I3" t="s">
@@ -4620,22 +4632,34 @@
       <c r="D38" t="s">
         <v>312</v>
       </c>
+      <c r="E38" t="s">
+        <v>327</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>311</v>
       </c>
+      <c r="E39" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>313</v>
       </c>
+      <c r="E40" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>314</v>
       </c>
+      <c r="E41" t="s">
+        <v>327</v>
+      </c>
       <c r="J41" t="s">
         <v>317</v>
       </c>
@@ -4644,6 +4668,9 @@
       <c r="D42" t="s">
         <v>266</v>
       </c>
+      <c r="E42" t="s">
+        <v>327</v>
+      </c>
       <c r="J42" t="s">
         <v>316</v>
       </c>
@@ -4652,34 +4679,49 @@
       <c r="D43" t="s">
         <v>302</v>
       </c>
+      <c r="E43" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>303</v>
       </c>
+      <c r="E44" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>309</v>
       </c>
+      <c r="E45" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E46" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>320</v>
       </c>
+      <c r="E47" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>321</v>
       </c>
+      <c r="E48" t="s">
+        <v>328</v>
+      </c>
       <c r="J48" t="s">
         <v>322</v>
       </c>
@@ -4688,21 +4730,40 @@
       <c r="D49" t="s">
         <v>319</v>
       </c>
+      <c r="E49" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E50" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
         <v>325</v>
       </c>
-      <c r="E51" t="s">
-        <v>323</v>
+      <c r="E52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>318</v>
+      </c>
+      <c r="E53" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
+++ b/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Monica/Documents/GitHub/AOR_Perception/PerceptionRating/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayat\Documents\GG\College Stuff\Research\Monica's Lab\Perception Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90525BB-7153-41BA-B6EE-17CFB9DFD31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerceptionMemory_Items" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,13 @@
     <sheet name="Notes" sheetId="4" r:id="rId3"/>
     <sheet name="TarGen" sheetId="6" r:id="rId4"/>
     <sheet name="LatinSquare" sheetId="5" r:id="rId5"/>
+    <sheet name="FillGen" sheetId="8" r:id="rId6"/>
+    <sheet name="TarFillGen" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,12 +34,15 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="490">
   <si>
     <t>ItemNumb</t>
   </si>
@@ -596,9 +599,6 @@
     <t>plate</t>
   </si>
   <si>
-    <t>couch</t>
-  </si>
-  <si>
     <t>brown</t>
   </si>
   <si>
@@ -668,9 +668,6 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>egg</t>
-  </si>
-  <si>
     <t>oval</t>
   </si>
   <si>
@@ -704,9 +701,6 @@
     <t>big</t>
   </si>
   <si>
-    <t>sun</t>
-  </si>
-  <si>
     <t>golden</t>
   </si>
   <si>
@@ -767,18 +761,6 @@
     <t>stone</t>
   </si>
   <si>
-    <t>spherical</t>
-  </si>
-  <si>
-    <t>penny</t>
-  </si>
-  <si>
-    <t>copper</t>
-  </si>
-  <si>
-    <t>blot</t>
-  </si>
-  <si>
     <t>ink</t>
   </si>
   <si>
@@ -806,15 +788,6 @@
     <t>plastic</t>
   </si>
   <si>
-    <t>bubble</t>
-  </si>
-  <si>
-    <t>wee</t>
-  </si>
-  <si>
-    <t>soap</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
@@ -833,9 +806,6 @@
     <t>doll</t>
   </si>
   <si>
-    <t>foam</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
@@ -845,18 +815,12 @@
     <t>marble</t>
   </si>
   <si>
-    <t>teensy</t>
-  </si>
-  <si>
     <t>bridge</t>
   </si>
   <si>
     <t>massive</t>
   </si>
   <si>
-    <t>trapezoidal</t>
-  </si>
-  <si>
     <t>staircase</t>
   </si>
   <si>
@@ -881,33 +845,9 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Weird: Why say octagonal when all (american?) stop signs are octagonal</t>
-  </si>
-  <si>
-    <t>Weird</t>
-  </si>
-  <si>
-    <t>Weird: Overspecification</t>
-  </si>
-  <si>
-    <t>I think ink blot might be a single word. What about something like "ink stain" / or "grease stain"</t>
-  </si>
-  <si>
     <t>ColTex</t>
   </si>
   <si>
-    <t>Weird: trapezoidal is too infrequent a word and I'm not sure what it means for a bridge to be trapezoidal</t>
-  </si>
-  <si>
-    <t>maybe use 'oblong' instead of spherical, since all balls are spherical</t>
-  </si>
-  <si>
-    <t>Weird: Overspecification, all pennies are round and copper; you can maybe replace penny with coin and then copper is ok, but round is still weird</t>
-  </si>
-  <si>
-    <t>even if you change spherical above, this is also weird because all marbles are spherical</t>
-  </si>
-  <si>
     <t>wool</t>
   </si>
   <si>
@@ -929,15 +869,6 @@
     <t>statue</t>
   </si>
   <si>
-    <t>Replace pool noodle, depending on your linguistic theory, pool might be an adjective for kind of noodle</t>
-  </si>
-  <si>
-    <t>You can also use this with jacket and save couch for something else</t>
-  </si>
-  <si>
-    <t>Weird: Why say oval when all eggs are oval; maybe use egg-shaped as the shape?</t>
-  </si>
-  <si>
     <t>smooth</t>
   </si>
   <si>
@@ -989,12 +920,6 @@
     <t>container</t>
   </si>
   <si>
-    <t>You had used tower for something else. But it might be better to use with material: concrete tower, granite tower? Or something else? Shape?</t>
-  </si>
-  <si>
-    <t>This a good one for shape</t>
-  </si>
-  <si>
     <t>flat</t>
   </si>
   <si>
@@ -1007,9 +932,6 @@
     <t>metal</t>
   </si>
   <si>
-    <t>maybe use with sign</t>
-  </si>
-  <si>
     <t>oblong</t>
   </si>
   <si>
@@ -1029,19 +951,586 @@
   </si>
   <si>
     <t>granite</t>
+  </si>
+  <si>
+    <t>egg-shaped</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>stain</t>
+  </si>
+  <si>
+    <t>cloak</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>window frame</t>
+  </si>
+  <si>
+    <t>wax</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>plank</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>kicked</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>jumped</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>peas</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>grew</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>disappeared</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>positively</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>tripped</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>branches</t>
+  </si>
+  <si>
+    <t>leaves</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>hugged</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Leia</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>laughed</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>dug</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>barking</t>
+  </si>
+  <si>
+    <t>meowing</t>
+  </si>
+  <si>
+    <t>blossoms</t>
+  </si>
+  <si>
+    <t>everywhere</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>fought</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>limes</t>
+  </si>
+  <si>
+    <t>lemons</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>purred</t>
+  </si>
+  <si>
+    <t>loudly</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>flies</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>spiders</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>giraffes</t>
+  </si>
+  <si>
+    <t>elephants</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>danced</t>
+  </si>
+  <si>
+    <t>talked</t>
+  </si>
+  <si>
+    <t>nobody</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>wanted</t>
+  </si>
+  <si>
+    <t>dolphins</t>
+  </si>
+  <si>
+    <t>whales</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excited </t>
+  </si>
+  <si>
+    <t>ziplines</t>
+  </si>
+  <si>
+    <t>trampolines</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>chased</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>poked</t>
+  </si>
+  <si>
+    <t>clouds</t>
+  </si>
+  <si>
+    <t>rainbows</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sisters</t>
+  </si>
+  <si>
+    <t>brothers</t>
+  </si>
+  <si>
+    <t>picked</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>blackberries</t>
+  </si>
+  <si>
+    <t>smelled</t>
+  </si>
+  <si>
+    <t>perfume</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>punched</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>pours</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Randomize!</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t>Filler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1076,7 +1565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1085,6 +1574,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,16 +1856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1419,7 +1911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1442,7 +1934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1465,7 +1957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1488,7 +1980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1511,7 +2003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1534,7 +2026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1557,7 +2049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1580,7 +2072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1603,7 +2095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1626,7 +2118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1649,7 +2141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1672,7 +2164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1695,7 +2187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1718,7 +2210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1741,7 +2233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1764,7 +2256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1787,7 +2279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1810,7 +2302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1833,7 +2325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1856,7 +2348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1879,7 +2371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1902,7 +2394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1925,7 +2417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1948,7 +2440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1971,7 +2463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1994,7 +2486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2017,7 +2509,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2040,7 +2532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2063,7 +2555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2086,7 +2578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2109,7 +2601,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2132,7 +2624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2155,7 +2647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2178,7 +2670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2201,7 +2693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2224,7 +2716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2247,7 +2739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2270,7 +2762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2293,7 +2785,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2316,7 +2808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2339,7 +2831,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2362,7 +2854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2385,7 +2877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2408,7 +2900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2431,7 +2923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2454,7 +2946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2477,7 +2969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2500,7 +2992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2523,7 +3015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2546,7 +3038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2569,7 +3061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2592,7 +3084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2615,7 +3107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2638,7 +3130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2661,7 +3153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2684,7 +3176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2707,7 +3199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2730,7 +3222,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2753,7 +3245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2776,7 +3268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2799,7 +3291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2822,7 +3314,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2845,7 +3337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2874,14 +3366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3230,20 +3722,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -3257,7 +3749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3271,7 +3763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3284,8 +3776,14 @@
       <c r="D3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3298,8 +3796,14 @@
       <c r="D4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3312,8 +3816,14 @@
       <c r="D5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3326,8 +3836,14 @@
       <c r="D6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3340,101 +3856,185 @@
       <c r="D7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>284</v>
       </c>
-      <c r="B15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3443,14 +4043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="8" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3484,7 +4084,7 @@
         <v>181</v>
       </c>
       <c r="J1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3498,27 +4098,24 @@
         <v>145</v>
       </c>
       <c r="D2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" t="s">
         <v>185</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
       </c>
       <c r="G2" t="str">
         <f>E2&amp;" "&amp;F2&amp;" "&amp;D2</f>
-        <v>brown leather couch</v>
+        <v>brown leather jacket</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>F2&amp;" "&amp;E2&amp;" "&amp;D2</f>
-        <v>leather brown couch</v>
+        <v>leather brown jacket</v>
       </c>
       <c r="I2" t="s">
         <v>182</v>
-      </c>
-      <c r="J2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3532,20 +4129,20 @@
         <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G37" si="0">E3&amp;" "&amp;F3&amp;" "&amp;D3</f>
+        <f>E3&amp;" "&amp;F3&amp;" "&amp;D3</f>
         <v>violet silk dress</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H37" si="1">F3&amp;" "&amp;E3&amp;" "&amp;D3</f>
+        <f>F3&amp;" "&amp;E3&amp;" "&amp;D3</f>
         <v>silk violet dress</v>
       </c>
       <c r="I3" t="s">
@@ -3563,20 +4160,20 @@
         <v>147</v>
       </c>
       <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
         <v>193</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>194</v>
       </c>
-      <c r="F4" t="s">
-        <v>195</v>
-      </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f>E4&amp;" "&amp;F4&amp;" "&amp;D4</f>
         <v>pink feather boa</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F4&amp;" "&amp;E4&amp;" "&amp;D4</f>
         <v>feather pink boa</v>
       </c>
       <c r="I4" t="s">
@@ -3594,20 +4191,20 @@
         <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f>E5&amp;" "&amp;F5&amp;" "&amp;D5</f>
         <v>maroon wool sweater</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F5&amp;" "&amp;E5&amp;" "&amp;D5</f>
         <v>wool maroon sweater</v>
       </c>
       <c r="I5" t="s">
@@ -3625,20 +4222,20 @@
         <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f>E6&amp;" "&amp;F6&amp;" "&amp;D6</f>
         <v>brown wood table</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F6&amp;" "&amp;E6&amp;" "&amp;D6</f>
         <v>wood brown table</v>
       </c>
       <c r="I6" t="s">
@@ -3656,20 +4253,20 @@
         <v>150</v>
       </c>
       <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" t="s">
         <v>200</v>
       </c>
-      <c r="E7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" t="s">
-        <v>201</v>
-      </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f>E7&amp;" "&amp;F7&amp;" "&amp;D7</f>
         <v>blue porcelain vase</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F7&amp;" "&amp;E7&amp;" "&amp;D7</f>
         <v>porcelain blue vase</v>
       </c>
       <c r="I7" t="s">
@@ -3687,27 +4284,24 @@
         <v>151</v>
       </c>
       <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
         <v>202</v>
       </c>
-      <c r="E8" t="s">
-        <v>203</v>
-      </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>purple spherical ball</v>
+        <f>E8&amp;" "&amp;F8&amp;" "&amp;D8</f>
+        <v>purple oblong ball</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>spherical purple ball</v>
+        <f>F8&amp;" "&amp;E8&amp;" "&amp;D8</f>
+        <v>oblong purple ball</v>
       </c>
       <c r="I8" t="s">
         <v>182</v>
-      </c>
-      <c r="J8" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3721,20 +4315,20 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>E9&amp;" "&amp;F9&amp;" "&amp;D9</f>
         <v>yellow rectangular door</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F9&amp;" "&amp;E9&amp;" "&amp;D9</f>
         <v>rectangular yellow door</v>
       </c>
       <c r="I9" t="s">
@@ -3752,27 +4346,24 @@
         <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>white oval egg</v>
+        <f>E10&amp;" "&amp;F10&amp;" "&amp;D10</f>
+        <v>white egg-shaped stone</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>oval white egg</v>
+        <f>F10&amp;" "&amp;E10&amp;" "&amp;D10</f>
+        <v>egg-shaped white stone</v>
       </c>
       <c r="I10" t="s">
         <v>183</v>
-      </c>
-      <c r="J10" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3786,20 +4377,20 @@
         <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>E11&amp;" "&amp;F11&amp;" "&amp;D11</f>
         <v>red heart-shaped strawberry</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F11&amp;" "&amp;E11&amp;" "&amp;D11</f>
         <v>heart-shaped red strawberry</v>
       </c>
       <c r="I11" t="s">
@@ -3817,20 +4408,20 @@
         <v>155</v>
       </c>
       <c r="D12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" t="s">
         <v>213</v>
       </c>
-      <c r="E12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" t="s">
-        <v>215</v>
-      </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f>E12&amp;" "&amp;F12&amp;" "&amp;D12</f>
         <v>orange triangular eraser</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F12&amp;" "&amp;E12&amp;" "&amp;D12</f>
         <v>triangular orange eraser</v>
       </c>
       <c r="I12" t="s">
@@ -3847,22 +4438,25 @@
       <c r="C13" t="s">
         <v>156</v>
       </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="F13" t="s">
+        <v>240</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">red  </v>
+        <f>E13&amp;" "&amp;F13&amp;" "&amp;D13</f>
+        <v>red star-shaped sticker</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> red </v>
+        <f>F13&amp;" "&amp;E13&amp;" "&amp;D13</f>
+        <v>star-shaped red sticker</v>
       </c>
       <c r="I13" t="s">
         <v>182</v>
-      </c>
-      <c r="J13" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3876,20 +4470,20 @@
         <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f>E14&amp;" "&amp;F14&amp;" "&amp;D14</f>
         <v>gray big house</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F14&amp;" "&amp;E14&amp;" "&amp;D14</f>
         <v>big gray house</v>
       </c>
       <c r="I14" t="s">
@@ -3907,27 +4501,24 @@
         <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>golden colossal sun</v>
+        <f>E15&amp;" "&amp;F15&amp;" "&amp;D15</f>
+        <v>golden colossal star</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>colossal golden sun</v>
+        <f>F15&amp;" "&amp;E15&amp;" "&amp;D15</f>
+        <v>colossal golden star</v>
       </c>
       <c r="I15" t="s">
         <v>182</v>
-      </c>
-      <c r="J15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3941,27 +4532,27 @@
         <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>E16&amp;" "&amp;F16&amp;" "&amp;D16</f>
         <v>turquoise tiny button</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F16&amp;" "&amp;E16&amp;" "&amp;D16</f>
         <v>tiny turquoise button</v>
       </c>
       <c r="I16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3972,27 +4563,27 @@
         <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>E17&amp;" "&amp;F17&amp;" "&amp;D17</f>
         <v>black small shoes</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F17&amp;" "&amp;E17&amp;" "&amp;D17</f>
         <v>small black shoes</v>
       </c>
       <c r="I17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4003,27 +4594,27 @@
         <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f>E18&amp;" "&amp;F18&amp;" "&amp;D18</f>
         <v>indigo large notebook</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F18&amp;" "&amp;E18&amp;" "&amp;D18</f>
         <v>large indigo notebook</v>
       </c>
       <c r="I18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4034,27 +4625,27 @@
         <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f>E19&amp;" "&amp;F19&amp;" "&amp;D19</f>
         <v>green giant beanstalk</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F19&amp;" "&amp;E19&amp;" "&amp;D19</f>
         <v>giant green beanstalk</v>
       </c>
       <c r="I19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4068,24 +4659,24 @@
         <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f>E20&amp;" "&amp;F20&amp;" "&amp;D20</f>
         <v>circular clay plate</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F20&amp;" "&amp;E20&amp;" "&amp;D20</f>
         <v>clay circular plate</v>
       </c>
       <c r="I20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4096,27 +4687,27 @@
         <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f>E21&amp;" "&amp;F21&amp;" "&amp;D21</f>
         <v>cylindrical glass bottle</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F21&amp;" "&amp;E21&amp;" "&amp;D21</f>
         <v>glass cylindrical bottle</v>
       </c>
       <c r="I21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4127,27 +4718,27 @@
         <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f>E22&amp;" "&amp;F22&amp;" "&amp;D22</f>
         <v>square stone table</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F22&amp;" "&amp;E22&amp;" "&amp;D22</f>
         <v>stone square table</v>
       </c>
       <c r="I22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4158,27 +4749,27 @@
         <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="F23" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>round marble statue</v>
+        <f>E23&amp;" "&amp;F23&amp;" "&amp;D23</f>
+        <v>boxy marble statue</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>marble round statue</v>
+        <f>F23&amp;" "&amp;E23&amp;" "&amp;D23</f>
+        <v>marble boxy statue</v>
       </c>
       <c r="I23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4189,30 +4780,27 @@
         <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>round copper penny</v>
+        <f>E24&amp;" "&amp;F24&amp;" "&amp;D24</f>
+        <v>round iron window frame</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>copper round penny</v>
+        <f>F24&amp;" "&amp;E24&amp;" "&amp;D24</f>
+        <v>iron round window frame</v>
       </c>
       <c r="I24" t="s">
         <v>182</v>
       </c>
-      <c r="J24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4223,30 +4811,27 @@
         <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>star-shaped ink blot</v>
+        <f>E25&amp;" "&amp;F25&amp;" "&amp;D25</f>
+        <v>oval ink stain</v>
       </c>
       <c r="H25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ink star-shaped blot</v>
+        <f>F25&amp;" "&amp;E25&amp;" "&amp;D25</f>
+        <v>ink oval stain</v>
       </c>
       <c r="I25" t="s">
         <v>183</v>
       </c>
-      <c r="J25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4257,27 +4842,27 @@
         <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f>E26&amp;" "&amp;F26&amp;" "&amp;D26</f>
         <v>little cotton sock</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F26&amp;" "&amp;E26&amp;" "&amp;D26</f>
         <v>cotton little sock</v>
       </c>
       <c r="I26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4287,29 +4872,28 @@
       <c r="C27" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">long foam </v>
+        <f>E27&amp;" "&amp;F27&amp;" "&amp;D27</f>
+        <v>long velvet cloak</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">foam long </v>
+        <f>F27&amp;" "&amp;E27&amp;" "&amp;D27</f>
+        <v>velvet long cloak</v>
       </c>
       <c r="I27" t="s">
         <v>183</v>
       </c>
-      <c r="J27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4320,27 +4904,27 @@
         <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f>E28&amp;" "&amp;F28&amp;" "&amp;D28</f>
         <v>huge plastic bucket</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F28&amp;" "&amp;E28&amp;" "&amp;D28</f>
         <v>plastic huge bucket</v>
       </c>
       <c r="I28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4351,30 +4935,27 @@
         <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>wee soap bubble</v>
+        <f>E29&amp;" "&amp;F29&amp;" "&amp;D29</f>
+        <v>short wax candle</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>soap wee bubble</v>
+        <f>F29&amp;" "&amp;E29&amp;" "&amp;D29</f>
+        <v>wax short candle</v>
       </c>
       <c r="I29" t="s">
         <v>182</v>
       </c>
-      <c r="J29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4385,27 +4966,27 @@
         <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f>E30&amp;" "&amp;F30&amp;" "&amp;D30</f>
         <v>medium cardbox box</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F30&amp;" "&amp;E30&amp;" "&amp;D30</f>
         <v>cardbox medium box</v>
       </c>
       <c r="I30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4416,27 +4997,27 @@
         <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E31" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f>E31&amp;" "&amp;F31&amp;" "&amp;D31</f>
         <v>miniscule paper doll</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F31&amp;" "&amp;E31&amp;" "&amp;D31</f>
         <v>paper miniscule doll</v>
       </c>
       <c r="I31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4447,27 +5028,27 @@
         <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>E32&amp;" "&amp;F32&amp;" "&amp;D32</f>
         <v>short circular container</v>
       </c>
       <c r="H32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>F32&amp;" "&amp;E32&amp;" "&amp;D32</f>
         <v>circular short container</v>
       </c>
       <c r="I32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4478,30 +5059,27 @@
         <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>teensy spherical marble</v>
+        <f>E33&amp;" "&amp;F33&amp;" "&amp;D33</f>
+        <v>wide rectangular plank</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>spherical teensy marble</v>
+        <f>F33&amp;" "&amp;E33&amp;" "&amp;D33</f>
+        <v>rectangular wide plank</v>
       </c>
       <c r="I33" t="s">
         <v>183</v>
       </c>
-      <c r="J33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4512,30 +5090,27 @@
         <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>massive trapezoidal bridge</v>
+        <f>E34&amp;" "&amp;F34&amp;" "&amp;D34</f>
+        <v>massive curved bridge</v>
       </c>
       <c r="H34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>trapezoidal massive bridge</v>
+        <f>F34&amp;" "&amp;E34&amp;" "&amp;D34</f>
+        <v>curved massive bridge</v>
       </c>
       <c r="I34" t="s">
         <v>183</v>
       </c>
-      <c r="J34" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4546,27 +5121,27 @@
         <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E35" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f>E35&amp;" "&amp;F35&amp;" "&amp;D35</f>
         <v>short spiral staircase</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F35&amp;" "&amp;E35&amp;" "&amp;D35</f>
         <v>spiral short staircase</v>
       </c>
       <c r="I35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4577,27 +5152,27 @@
         <v>179</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f>E36&amp;" "&amp;F36&amp;" "&amp;D36</f>
         <v>narrow arched doorway</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F36&amp;" "&amp;E36&amp;" "&amp;D36</f>
         <v>arched narrow doorway</v>
       </c>
       <c r="I36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4608,167 +5183,32 @@
         <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="0"/>
+        <f>E37&amp;" "&amp;F37&amp;" "&amp;D37</f>
         <v>gigantic square cake</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>F37&amp;" "&amp;E37&amp;" "&amp;D37</f>
         <v>square gigantic cake</v>
       </c>
       <c r="I37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>312</v>
-      </c>
-      <c r="E38" t="s">
-        <v>327</v>
-      </c>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>311</v>
-      </c>
-      <c r="E39" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>313</v>
-      </c>
-      <c r="E40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>314</v>
-      </c>
-      <c r="E41" t="s">
-        <v>327</v>
-      </c>
-      <c r="J41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" t="s">
-        <v>327</v>
-      </c>
-      <c r="J42" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>320</v>
-      </c>
-      <c r="E47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>321</v>
-      </c>
-      <c r="E48" t="s">
-        <v>328</v>
-      </c>
-      <c r="J48" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>319</v>
-      </c>
-      <c r="E49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>323</v>
-      </c>
-      <c r="E50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>324</v>
-      </c>
-      <c r="E51" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>325</v>
-      </c>
-      <c r="E52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>318</v>
-      </c>
-      <c r="E53" t="s">
-        <v>326</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="H33:I37">
-    <sortCondition ref="H32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J37">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4776,16 +5216,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -4808,7 +5248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4831,7 +5271,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4854,7 +5294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4877,7 +5317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4900,7 +5340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4923,7 +5363,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4946,7 +5386,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4969,7 +5409,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4992,7 +5432,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5015,7 +5455,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -5038,7 +5478,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -5061,7 +5501,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5084,7 +5524,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5107,7 +5547,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5130,7 +5570,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5153,7 +5593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5176,7 +5616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5199,7 +5639,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5222,7 +5662,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5245,7 +5685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5268,7 +5708,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5291,7 +5731,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5314,7 +5754,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -5337,7 +5777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5360,7 +5800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5383,7 +5823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -5406,7 +5846,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5429,7 +5869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5452,7 +5892,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5475,7 +5915,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5498,7 +5938,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5521,7 +5961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -5544,7 +5984,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -5567,7 +6007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -5590,7 +6030,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -5613,7 +6053,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -5639,4 +6079,3615 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D292908E-3F0D-41A0-B1DC-604CB4347465}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>451</v>
+      </c>
+      <c r="B18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>456</v>
+      </c>
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>460</v>
+      </c>
+      <c r="B27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>461</v>
+      </c>
+      <c r="B28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>462</v>
+      </c>
+      <c r="B29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B30" t="s">
+        <v>386</v>
+      </c>
+      <c r="C30" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>466</v>
+      </c>
+      <c r="B33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" t="s">
+        <v>396</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>468</v>
+      </c>
+      <c r="B35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" t="s">
+        <v>397</v>
+      </c>
+      <c r="D35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>469</v>
+      </c>
+      <c r="B36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>470</v>
+      </c>
+      <c r="B37" t="s">
+        <v>401</v>
+      </c>
+      <c r="C37" t="s">
+        <v>402</v>
+      </c>
+      <c r="D37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" t="s">
+        <v>403</v>
+      </c>
+      <c r="D38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>472</v>
+      </c>
+      <c r="B39" t="s">
+        <v>405</v>
+      </c>
+      <c r="C39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>473</v>
+      </c>
+      <c r="B40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>474</v>
+      </c>
+      <c r="B41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" t="s">
+        <v>409</v>
+      </c>
+      <c r="D41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
+      <c r="D42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>476</v>
+      </c>
+      <c r="B43" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
+      <c r="D43" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>477</v>
+      </c>
+      <c r="B44" t="s">
+        <v>416</v>
+      </c>
+      <c r="C44" t="s">
+        <v>417</v>
+      </c>
+      <c r="D44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>478</v>
+      </c>
+      <c r="B45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C45" t="s">
+        <v>419</v>
+      </c>
+      <c r="D45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>479</v>
+      </c>
+      <c r="B46" t="s">
+        <v>420</v>
+      </c>
+      <c r="C46" t="s">
+        <v>421</v>
+      </c>
+      <c r="D46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>480</v>
+      </c>
+      <c r="B47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" t="s">
+        <v>423</v>
+      </c>
+      <c r="D47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>481</v>
+      </c>
+      <c r="B48" t="s">
+        <v>425</v>
+      </c>
+      <c r="C48" t="s">
+        <v>426</v>
+      </c>
+      <c r="D48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B49" t="s">
+        <v>428</v>
+      </c>
+      <c r="C49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>483</v>
+      </c>
+      <c r="B50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" t="s">
+        <v>431</v>
+      </c>
+      <c r="D50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>484</v>
+      </c>
+      <c r="B51" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D51" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7029D4-8EFC-4FA7-AAF6-B1016B3F57A0}">
+  <dimension ref="A1:K87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="str">
+        <f>VLOOKUP($B2,FillGen!$A$1:$D51,4,FALSE)</f>
+        <v>or</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>VLOOKUP($B2,FillGen!$A$1:$D51,2,FALSE)</f>
+        <v>far</v>
+      </c>
+      <c r="H2" s="6" t="str">
+        <f>VLOOKUP($B2,FillGen!$A$1:$D51,3,FALSE)</f>
+        <v>near</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>G3&amp;" "&amp;H3&amp;" "&amp;F3</f>
+        <v>gray big house</v>
+      </c>
+      <c r="J3" s="7" t="str">
+        <f>H3&amp;" "&amp;G3&amp;" "&amp;F3</f>
+        <v>big gray house</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>G4&amp;" "&amp;H4&amp;" "&amp;F4</f>
+        <v>brown leather jacket</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>H4&amp;" "&amp;G4&amp;" "&amp;F4</f>
+        <v>leather brown jacket</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="str">
+        <f>VLOOKUP($B5,FillGen!$A$1:$D54,4,FALSE)</f>
+        <v>will</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f>VLOOKUP($B5,FillGen!$A$1:$D54,2,FALSE)</f>
+        <v>tomorrow</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f>VLOOKUP($B5,FillGen!$A$1:$D54,3,FALSE)</f>
+        <v>come</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>G6&amp;" "&amp;H6&amp;" "&amp;F6</f>
+        <v>little cotton sock</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>H6&amp;" "&amp;G6&amp;" "&amp;F6</f>
+        <v>cotton little sock</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>G7&amp;" "&amp;H7&amp;" "&amp;F7</f>
+        <v>short circular container</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>H7&amp;" "&amp;G7&amp;" "&amp;F7</f>
+        <v>circular short container</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f>VLOOKUP($B8,FillGen!$A$1:$D57,2,FALSE)</f>
+        <v>blossoms</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f>VLOOKUP($B8,FillGen!$A$1:$D57,3,FALSE)</f>
+        <v>everywhere</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>G9&amp;" "&amp;H9&amp;" "&amp;F9</f>
+        <v>purple oblong ball</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f>H9&amp;" "&amp;G9&amp;" "&amp;F9</f>
+        <v>oblong purple ball</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>VLOOKUP($B10,FillGen!$A$1:$D59,2,FALSE)</f>
+        <v>together</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f>VLOOKUP($B10,FillGen!$A$1:$D59,3,FALSE)</f>
+        <v>laughed</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>VLOOKUP($B11,FillGen!$A$1:$D60,2,FALSE)</f>
+        <v>apples</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f>VLOOKUP($B11,FillGen!$A$1:$D60,3,FALSE)</f>
+        <v>bananas</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f>VLOOKUP($B12,FillGen!$A$1:$D61,2,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f>VLOOKUP($B12,FillGen!$A$1:$D61,3,FALSE)</f>
+        <v>beyond</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f>G13&amp;" "&amp;H13&amp;" "&amp;F13</f>
+        <v>circular clay plate</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f>H13&amp;" "&amp;G13&amp;" "&amp;F13</f>
+        <v>clay circular plate</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f>G14&amp;" "&amp;H14&amp;" "&amp;F14</f>
+        <v>golden colossal star</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f>H14&amp;" "&amp;G14&amp;" "&amp;F14</f>
+        <v>colossal golden star</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="str">
+        <f>VLOOKUP($B15,FillGen!$A$1:$D64,4,FALSE)</f>
+        <v>cat</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f>VLOOKUP($B15,FillGen!$A$1:$D64,2,FALSE)</f>
+        <v>purred</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f>VLOOKUP($B15,FillGen!$A$1:$D64,3,FALSE)</f>
+        <v>loudly</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f>G16&amp;" "&amp;H16&amp;" "&amp;F16</f>
+        <v>violet silk dress</v>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f>H16&amp;" "&amp;G16&amp;" "&amp;F16</f>
+        <v>silk violet dress</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="str">
+        <f>VLOOKUP($B17,FillGen!$A$1:$D66,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f>VLOOKUP($B17,FillGen!$A$1:$D66,2,FALSE)</f>
+        <v>barking</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f>VLOOKUP($B17,FillGen!$A$1:$D66,3,FALSE)</f>
+        <v>meowing</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f>G18&amp;" "&amp;H18&amp;" "&amp;F18</f>
+        <v>long velvet cloak</v>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f>H18&amp;" "&amp;G18&amp;" "&amp;F18</f>
+        <v>velvet long cloak</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="str">
+        <f>VLOOKUP($B19,FillGen!$A$1:$D68,4,FALSE)</f>
+        <v>absolutely</v>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f>VLOOKUP($B19,FillGen!$A$1:$D68,2,FALSE)</f>
+        <v>positively</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f>VLOOKUP($B19,FillGen!$A$1:$D68,3,FALSE)</f>
+        <v>sure</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="str">
+        <f>VLOOKUP($B20,FillGen!$A$1:$D69,4,FALSE)</f>
+        <v>far</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f>VLOOKUP($B20,FillGen!$A$1:$D69,2,FALSE)</f>
+        <v>very</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f>VLOOKUP($B20,FillGen!$A$1:$D69,3,FALSE)</f>
+        <v>away</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="str">
+        <f>VLOOKUP($B21,FillGen!$A$1:$D70,4,FALSE)</f>
+        <v>Leia</v>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f>VLOOKUP($B21,FillGen!$A$1:$D70,2,FALSE)</f>
+        <v>hugged</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f>VLOOKUP($B21,FillGen!$A$1:$D70,3,FALSE)</f>
+        <v>Jack</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f>G22&amp;" "&amp;H22&amp;" "&amp;F22</f>
+        <v>wide rectangular plank</v>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f>H22&amp;" "&amp;G22&amp;" "&amp;F22</f>
+        <v>rectangular wide plank</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="str">
+        <f>VLOOKUP($B23,FillGen!$A$1:$D72,4,FALSE)</f>
+        <v>trampolines</v>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f>VLOOKUP($B23,FillGen!$A$1:$D72,2,FALSE)</f>
+        <v>or</v>
+      </c>
+      <c r="H23" s="6" t="str">
+        <f>VLOOKUP($B23,FillGen!$A$1:$D72,3,FALSE)</f>
+        <v>ziplines</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f>G24&amp;" "&amp;H24&amp;" "&amp;F24</f>
+        <v>yellow rectangular door</v>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f>H24&amp;" "&amp;G24&amp;" "&amp;F24</f>
+        <v>rectangular yellow door</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="str">
+        <f>VLOOKUP($B25,FillGen!$A$1:$D74,4,FALSE)</f>
+        <v>a</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f>VLOOKUP($B25,FillGen!$A$1:$D74,2,FALSE)</f>
+        <v>paint</v>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f>VLOOKUP($B25,FillGen!$A$1:$D74,3,FALSE)</f>
+        <v>picture</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f>G26&amp;" "&amp;H26&amp;" "&amp;F26</f>
+        <v>cylindrical glass bottle</v>
+      </c>
+      <c r="J26" s="7" t="str">
+        <f>H26&amp;" "&amp;G26&amp;" "&amp;F26</f>
+        <v>glass cylindrical bottle</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="str">
+        <f>VLOOKUP($B27,FillGen!$A$1:$D76,4,FALSE)</f>
+        <v>wanted</v>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f>VLOOKUP($B27,FillGen!$A$1:$D76,2,FALSE)</f>
+        <v>nobody</v>
+      </c>
+      <c r="H27" s="6" t="str">
+        <f>VLOOKUP($B27,FillGen!$A$1:$D76,3,FALSE)</f>
+        <v>to</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f>G28&amp;" "&amp;H28&amp;" "&amp;F28</f>
+        <v>turquoise tiny button</v>
+      </c>
+      <c r="J28" s="7" t="str">
+        <f>H28&amp;" "&amp;G28&amp;" "&amp;F28</f>
+        <v>tiny turquoise button</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f>G29&amp;" "&amp;H29&amp;" "&amp;F29</f>
+        <v>pink feather boa</v>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f>H29&amp;" "&amp;G29&amp;" "&amp;F29</f>
+        <v>feather pink boa</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="str">
+        <f>VLOOKUP($B30,FillGen!$A$1:$D79,4,FALSE)</f>
+        <v>elephants</v>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f>VLOOKUP($B30,FillGen!$A$1:$D79,2,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="H30" s="6" t="str">
+        <f>VLOOKUP($B30,FillGen!$A$1:$D79,3,FALSE)</f>
+        <v>giraffes</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="str">
+        <f>VLOOKUP($B31,FillGen!$A$1:$D80,4,FALSE)</f>
+        <v>they</v>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f>VLOOKUP($B31,FillGen!$A$1:$D80,2,FALSE)</f>
+        <v>hands</v>
+      </c>
+      <c r="H31" s="6" t="str">
+        <f>VLOOKUP($B31,FillGen!$A$1:$D80,3,FALSE)</f>
+        <v>held</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I32" s="6" t="str">
+        <f>G32&amp;" "&amp;H32&amp;" "&amp;F32</f>
+        <v>huge plastic bucket</v>
+      </c>
+      <c r="J32" s="7" t="str">
+        <f>H32&amp;" "&amp;G32&amp;" "&amp;F32</f>
+        <v>plastic huge bucket</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="str">
+        <f>VLOOKUP($B33,FillGen!$A$1:$D82,4,FALSE)</f>
+        <v>chased</v>
+      </c>
+      <c r="G33" s="6" t="str">
+        <f>VLOOKUP($B33,FillGen!$A$1:$D82,2,FALSE)</f>
+        <v>was</v>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f>VLOOKUP($B33,FillGen!$A$1:$D82,3,FALSE)</f>
+        <v>squirrel</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>21</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f>G34&amp;" "&amp;H34&amp;" "&amp;F34</f>
+        <v>massive curved bridge</v>
+      </c>
+      <c r="J34" s="7" t="str">
+        <f>H34&amp;" "&amp;G34&amp;" "&amp;F34</f>
+        <v>curved massive bridge</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="str">
+        <f>VLOOKUP($B35,FillGen!$A$1:$D84,4,FALSE)</f>
+        <v>down</v>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f>VLOOKUP($B35,FillGen!$A$1:$D84,2,FALSE)</f>
+        <v>pours</v>
+      </c>
+      <c r="H35" s="6" t="str">
+        <f>VLOOKUP($B35,FillGen!$A$1:$D84,3,FALSE)</f>
+        <v>rain</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>36</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f>G36&amp;" "&amp;H36&amp;" "&amp;F36</f>
+        <v>white egg-shaped stone</v>
+      </c>
+      <c r="J36" s="7" t="str">
+        <f>H36&amp;" "&amp;G36&amp;" "&amp;F36</f>
+        <v>egg-shaped white stone</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="str">
+        <f>VLOOKUP($B37,FillGen!$A$1:$D86,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f>VLOOKUP($B37,FillGen!$A$1:$D86,2,FALSE)</f>
+        <v>listen</v>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f>VLOOKUP($B37,FillGen!$A$1:$D86,3,FALSE)</f>
+        <v>watch</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="str">
+        <f>VLOOKUP($B38,FillGen!$A$1:$D87,4,FALSE)</f>
+        <v>was</v>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f>VLOOKUP($B38,FillGen!$A$1:$D87,2,FALSE)</f>
+        <v>John</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f>VLOOKUP($B38,FillGen!$A$1:$D87,3,FALSE)</f>
+        <v>happy</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f>G39&amp;" "&amp;H39&amp;" "&amp;F39</f>
+        <v>square stone table</v>
+      </c>
+      <c r="J39" s="7" t="str">
+        <f>H39&amp;" "&amp;G39&amp;" "&amp;F39</f>
+        <v>stone square table</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>VLOOKUP($B40,FillGen!$A$1:$D89,4,FALSE)</f>
+        <v>fought</v>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f>VLOOKUP($B40,FillGen!$A$1:$D89,2,FALSE)</f>
+        <v>Jill</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f>VLOOKUP($B40,FillGen!$A$1:$D89,3,FALSE)</f>
+        <v>Jack</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="str">
+        <f>VLOOKUP($B41,FillGen!$A$1:$D90,4,FALSE)</f>
+        <v xml:space="preserve">a </v>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f>VLOOKUP($B41,FillGen!$A$1:$D90,2,FALSE)</f>
+        <v>dug</v>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f>VLOOKUP($B41,FillGen!$A$1:$D90,3,FALSE)</f>
+        <v>hole</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f>G42&amp;" "&amp;H42&amp;" "&amp;F42</f>
+        <v>black small shoes</v>
+      </c>
+      <c r="J42" s="7" t="str">
+        <f>H42&amp;" "&amp;G42&amp;" "&amp;F42</f>
+        <v>small black shoes</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="str">
+        <f>VLOOKUP($B43,FillGen!$A$1:$D92,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G43" s="6" t="str">
+        <f>VLOOKUP($B43,FillGen!$A$1:$D92,2,FALSE)</f>
+        <v>dinner</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f>VLOOKUP($B43,FillGen!$A$1:$D92,3,FALSE)</f>
+        <v>lunch</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="str">
+        <f>VLOOKUP($B44,FillGen!$A$1:$D93,4,FALSE)</f>
+        <v>disappeared</v>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f>VLOOKUP($B44,FillGen!$A$1:$D93,2,FALSE)</f>
+        <v>fog</v>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f>VLOOKUP($B44,FillGen!$A$1:$D93,3,FALSE)</f>
+        <v>the</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="str">
+        <f>VLOOKUP($B45,FillGen!$A$1:$D94,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G45" s="6" t="str">
+        <f>VLOOKUP($B45,FillGen!$A$1:$D94,2,FALSE)</f>
+        <v>soup</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f>VLOOKUP($B45,FillGen!$A$1:$D94,3,FALSE)</f>
+        <v>bread</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>20</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f>G46&amp;" "&amp;H46&amp;" "&amp;F46</f>
+        <v>maroon wool sweater</v>
+      </c>
+      <c r="J46" s="7" t="str">
+        <f>H46&amp;" "&amp;G46&amp;" "&amp;F46</f>
+        <v>wool maroon sweater</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="str">
+        <f>VLOOKUP($B47,FillGen!$A$1:$D96,4,FALSE)</f>
+        <v>the</v>
+      </c>
+      <c r="G47" s="6" t="str">
+        <f>VLOOKUP($B47,FillGen!$A$1:$D96,2,FALSE)</f>
+        <v>tree</v>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f>VLOOKUP($B47,FillGen!$A$1:$D96,3,FALSE)</f>
+        <v>grew</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>17</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f>G48&amp;" "&amp;H48&amp;" "&amp;F48</f>
+        <v>short wax candle</v>
+      </c>
+      <c r="J48" s="7" t="str">
+        <f>H48&amp;" "&amp;G48&amp;" "&amp;F48</f>
+        <v>wax short candle</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="str">
+        <f>VLOOKUP($B49,FillGen!$A$1:$D98,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G49" s="6" t="str">
+        <f>VLOOKUP($B49,FillGen!$A$1:$D98,2,FALSE)</f>
+        <v>tripped</v>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f>VLOOKUP($B49,FillGen!$A$1:$D98,3,FALSE)</f>
+        <v>fell</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="str">
+        <f>VLOOKUP($B50,FillGen!$A$1:$D99,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G50" s="6" t="str">
+        <f>VLOOKUP($B50,FillGen!$A$1:$D99,2,FALSE)</f>
+        <v>chocolate</v>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f>VLOOKUP($B50,FillGen!$A$1:$D99,3,FALSE)</f>
+        <v>vanilla</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="str">
+        <f>VLOOKUP($B51,FillGen!$A$1:$D100,4,FALSE)</f>
+        <v xml:space="preserve">a </v>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f>VLOOKUP($B51,FillGen!$A$1:$D100,2,FALSE)</f>
+        <v>carrot</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f>VLOOKUP($B51,FillGen!$A$1:$D100,3,FALSE)</f>
+        <v>bite</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f>G52&amp;" "&amp;H52&amp;" "&amp;F52</f>
+        <v>short spiral staircase</v>
+      </c>
+      <c r="J52" s="7" t="str">
+        <f>H52&amp;" "&amp;G52&amp;" "&amp;F52</f>
+        <v>spiral short staircase</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="str">
+        <f>VLOOKUP($B53,FillGen!$A$1:$D102,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G53" s="6" t="str">
+        <f>VLOOKUP($B53,FillGen!$A$1:$D102,2,FALSE)</f>
+        <v>branches</v>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f>VLOOKUP($B53,FillGen!$A$1:$D102,3,FALSE)</f>
+        <v>leaves</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="str">
+        <f>VLOOKUP($B54,FillGen!$A$1:$D103,4,FALSE)</f>
+        <v>rainbows</v>
+      </c>
+      <c r="G54" s="6" t="str">
+        <f>VLOOKUP($B54,FillGen!$A$1:$D103,2,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f>VLOOKUP($B54,FillGen!$A$1:$D103,3,FALSE)</f>
+        <v>clouds</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>6</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f>G55&amp;" "&amp;H55&amp;" "&amp;F55</f>
+        <v>red heart-shaped strawberry</v>
+      </c>
+      <c r="J55" s="7" t="str">
+        <f>H55&amp;" "&amp;G55&amp;" "&amp;F55</f>
+        <v>heart-shaped red strawberry</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6" t="str">
+        <f>VLOOKUP($B56,FillGen!$A$1:$D105,4,FALSE)</f>
+        <v>kicked</v>
+      </c>
+      <c r="G56" s="6" t="str">
+        <f>VLOOKUP($B56,FillGen!$A$1:$D105,2,FALSE)</f>
+        <v>was</v>
+      </c>
+      <c r="H56" s="6" t="str">
+        <f>VLOOKUP($B56,FillGen!$A$1:$D105,3,FALSE)</f>
+        <v>Mary</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="str">
+        <f>VLOOKUP($B57,FillGen!$A$1:$D106,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G57" s="6" t="str">
+        <f>VLOOKUP($B57,FillGen!$A$1:$D106,2,FALSE)</f>
+        <v>night</v>
+      </c>
+      <c r="H57" s="6" t="str">
+        <f>VLOOKUP($B57,FillGen!$A$1:$D106,3,FALSE)</f>
+        <v>day</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>31</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="6" t="str">
+        <f>G58&amp;" "&amp;H58&amp;" "&amp;F58</f>
+        <v>boxy marble statue</v>
+      </c>
+      <c r="J58" s="7" t="str">
+        <f>H58&amp;" "&amp;G58&amp;" "&amp;F58</f>
+        <v>marble boxy statue</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="str">
+        <f>VLOOKUP($B59,FillGen!$A$1:$D108,4,FALSE)</f>
+        <v>moon</v>
+      </c>
+      <c r="G59" s="6" t="str">
+        <f>VLOOKUP($B59,FillGen!$A$1:$D108,2,FALSE)</f>
+        <v>rose</v>
+      </c>
+      <c r="H59" s="6" t="str">
+        <f>VLOOKUP($B59,FillGen!$A$1:$D108,3,FALSE)</f>
+        <v>the</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>30</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f>G60&amp;" "&amp;H60&amp;" "&amp;F60</f>
+        <v>indigo large notebook</v>
+      </c>
+      <c r="J60" s="7" t="str">
+        <f>H60&amp;" "&amp;G60&amp;" "&amp;F60</f>
+        <v>large indigo notebook</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="str">
+        <f>VLOOKUP($B61,FillGen!$A$1:$D110,4,FALSE)</f>
+        <v>perfume</v>
+      </c>
+      <c r="G61" s="6" t="str">
+        <f>VLOOKUP($B61,FillGen!$A$1:$D110,2,FALSE)</f>
+        <v>the</v>
+      </c>
+      <c r="H61" s="6" t="str">
+        <f>VLOOKUP($B61,FillGen!$A$1:$D110,3,FALSE)</f>
+        <v>smelled</v>
+      </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="str">
+        <f>VLOOKUP($B62,FillGen!$A$1:$D111,4,FALSE)</f>
+        <v>or</v>
+      </c>
+      <c r="G62" s="6" t="str">
+        <f>VLOOKUP($B62,FillGen!$A$1:$D111,2,FALSE)</f>
+        <v>limes</v>
+      </c>
+      <c r="H62" s="6" t="str">
+        <f>VLOOKUP($B62,FillGen!$A$1:$D111,3,FALSE)</f>
+        <v>lemons</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6">
+        <v>2</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I63" s="6" t="str">
+        <f>G63&amp;" "&amp;H63&amp;" "&amp;F63</f>
+        <v>brown wood table</v>
+      </c>
+      <c r="J63" s="7" t="str">
+        <f>H63&amp;" "&amp;G63&amp;" "&amp;F63</f>
+        <v>wood brown table</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="str">
+        <f>VLOOKUP($B64,FillGen!$A$1:$D113,4,FALSE)</f>
+        <v>jumped</v>
+      </c>
+      <c r="G64" s="6" t="str">
+        <f>VLOOKUP($B64,FillGen!$A$1:$D113,2,FALSE)</f>
+        <v>it</v>
+      </c>
+      <c r="H64" s="6" t="str">
+        <f>VLOOKUP($B64,FillGen!$A$1:$D113,3,FALSE)</f>
+        <v>up</v>
+      </c>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="str">
+        <f>VLOOKUP($B65,FillGen!$A$1:$D114,4,FALSE)</f>
+        <v>peas</v>
+      </c>
+      <c r="G65" s="6" t="str">
+        <f>VLOOKUP($B65,FillGen!$A$1:$D114,2,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f>VLOOKUP($B65,FillGen!$A$1:$D114,3,FALSE)</f>
+        <v>potatoes</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6">
+        <v>24</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I66" s="6" t="str">
+        <f>G66&amp;" "&amp;H66&amp;" "&amp;F66</f>
+        <v>medium cardbox box</v>
+      </c>
+      <c r="J66" s="7" t="str">
+        <f>H66&amp;" "&amp;G66&amp;" "&amp;F66</f>
+        <v>cardbox medium box</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6" t="str">
+        <f>VLOOKUP($B67,FillGen!$A$1:$D116,4,FALSE)</f>
+        <v>was</v>
+      </c>
+      <c r="G67" s="6" t="str">
+        <f>VLOOKUP($B67,FillGen!$A$1:$D116,2,FALSE)</f>
+        <v>Laura</v>
+      </c>
+      <c r="H67" s="6" t="str">
+        <f>VLOOKUP($B67,FillGen!$A$1:$D116,3,FALSE)</f>
+        <v xml:space="preserve">excited </v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6" t="str">
+        <f>VLOOKUP($B68,FillGen!$A$1:$D117,4,FALSE)</f>
+        <v>punched</v>
+      </c>
+      <c r="G68" s="6" t="str">
+        <f>VLOOKUP($B68,FillGen!$A$1:$D117,2,FALSE)</f>
+        <v>Kerry</v>
+      </c>
+      <c r="H68" s="6" t="str">
+        <f>VLOOKUP($B68,FillGen!$A$1:$D117,3,FALSE)</f>
+        <v>Greg</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="str">
+        <f>VLOOKUP($B69,FillGen!$A$1:$D118,4,FALSE)</f>
+        <v>with</v>
+      </c>
+      <c r="G69" s="6" t="str">
+        <f>VLOOKUP($B69,FillGen!$A$1:$D118,2,FALSE)</f>
+        <v>yogurt</v>
+      </c>
+      <c r="H69" s="6" t="str">
+        <f>VLOOKUP($B69,FillGen!$A$1:$D118,3,FALSE)</f>
+        <v>fruit</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6">
+        <v>29</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I70" s="6" t="str">
+        <f>G70&amp;" "&amp;H70&amp;" "&amp;F70</f>
+        <v>narrow arched doorway</v>
+      </c>
+      <c r="J70" s="7" t="str">
+        <f>H70&amp;" "&amp;G70&amp;" "&amp;F70</f>
+        <v>arched narrow doorway</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="str">
+        <f>VLOOKUP($B71,FillGen!$A$1:$D120,4,FALSE)</f>
+        <v>you</v>
+      </c>
+      <c r="G71" s="6" t="str">
+        <f>VLOOKUP($B71,FillGen!$A$1:$D120,2,FALSE)</f>
+        <v>loudly</v>
+      </c>
+      <c r="H71" s="6" t="str">
+        <f>VLOOKUP($B71,FillGen!$A$1:$D120,3,FALSE)</f>
+        <v>sing</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>VLOOKUP($B72,FillGen!$A$1:$D121,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G72" s="6" t="str">
+        <f>VLOOKUP($B72,FillGen!$A$1:$D121,2,FALSE)</f>
+        <v>snow</v>
+      </c>
+      <c r="H72" s="6" t="str">
+        <f>VLOOKUP($B72,FillGen!$A$1:$D121,3,FALSE)</f>
+        <v>ice</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6">
+        <v>12</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I73" s="6" t="str">
+        <f>G73&amp;" "&amp;H73&amp;" "&amp;F73</f>
+        <v>orange triangular eraser</v>
+      </c>
+      <c r="J73" s="7" t="str">
+        <f>H73&amp;" "&amp;G73&amp;" "&amp;F73</f>
+        <v>triangular orange eraser</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6">
+        <v>16</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I74" s="6" t="str">
+        <f>G74&amp;" "&amp;H74&amp;" "&amp;F74</f>
+        <v>round iron window frame</v>
+      </c>
+      <c r="J74" s="7" t="str">
+        <f>H74&amp;" "&amp;G74&amp;" "&amp;F74</f>
+        <v>iron round window frame</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6" t="str">
+        <f>VLOOKUP($B75,FillGen!$A$1:$D124,4,FALSE)</f>
+        <v>always</v>
+      </c>
+      <c r="G75" s="6" t="str">
+        <f>VLOOKUP($B75,FillGen!$A$1:$D124,2,FALSE)</f>
+        <v>be</v>
+      </c>
+      <c r="H75" s="6" t="str">
+        <f>VLOOKUP($B75,FillGen!$A$1:$D124,3,FALSE)</f>
+        <v>will</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6">
+        <v>34</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I76" s="6" t="str">
+        <f>G76&amp;" "&amp;H76&amp;" "&amp;F76</f>
+        <v>green giant beanstalk</v>
+      </c>
+      <c r="J76" s="7" t="str">
+        <f>H76&amp;" "&amp;G76&amp;" "&amp;F76</f>
+        <v>giant green beanstalk</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="str">
+        <f>VLOOKUP($B77,FillGen!$A$1:$D126,4,FALSE)</f>
+        <v>talked</v>
+      </c>
+      <c r="G77" s="6" t="str">
+        <f>VLOOKUP($B77,FillGen!$A$1:$D126,2,FALSE)</f>
+        <v>danced</v>
+      </c>
+      <c r="H77" s="6" t="str">
+        <f>VLOOKUP($B77,FillGen!$A$1:$D126,3,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6">
+        <v>25</v>
+      </c>
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I78" s="6" t="str">
+        <f>G78&amp;" "&amp;H78&amp;" "&amp;F78</f>
+        <v>blue porcelain vase</v>
+      </c>
+      <c r="J78" s="7" t="str">
+        <f>H78&amp;" "&amp;G78&amp;" "&amp;F78</f>
+        <v>porcelain blue vase</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="str">
+        <f>VLOOKUP($B79,FillGen!$A$1:$D128,4,FALSE)</f>
+        <v>spiders</v>
+      </c>
+      <c r="G79" s="6" t="str">
+        <f>VLOOKUP($B79,FillGen!$A$1:$D128,2,FALSE)</f>
+        <v>flies</v>
+      </c>
+      <c r="H79" s="6" t="str">
+        <f>VLOOKUP($B79,FillGen!$A$1:$D128,3,FALSE)</f>
+        <v>eat</v>
+      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6">
+        <v>13</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I80" s="6" t="str">
+        <f>G80&amp;" "&amp;H80&amp;" "&amp;F80</f>
+        <v>miniscule paper doll</v>
+      </c>
+      <c r="J80" s="7" t="str">
+        <f>H80&amp;" "&amp;G80&amp;" "&amp;F80</f>
+        <v>paper miniscule doll</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6">
+        <v>26</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I81" s="6" t="str">
+        <f>G81&amp;" "&amp;H81&amp;" "&amp;F81</f>
+        <v>gigantic square cake</v>
+      </c>
+      <c r="J81" s="7" t="str">
+        <f>H81&amp;" "&amp;G81&amp;" "&amp;F81</f>
+        <v>square gigantic cake</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="str">
+        <f>VLOOKUP($B82,FillGen!$A$1:$D131,4,FALSE)</f>
+        <v>blackberries</v>
+      </c>
+      <c r="G82" s="6" t="str">
+        <f>VLOOKUP($B82,FillGen!$A$1:$D131,2,FALSE)</f>
+        <v>picked</v>
+      </c>
+      <c r="H82" s="6" t="str">
+        <f>VLOOKUP($B82,FillGen!$A$1:$D131,3,FALSE)</f>
+        <v>were</v>
+      </c>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6">
+        <v>32</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I83" s="6" t="str">
+        <f>G83&amp;" "&amp;H83&amp;" "&amp;F83</f>
+        <v>red star-shaped sticker</v>
+      </c>
+      <c r="J83" s="7" t="str">
+        <f>H83&amp;" "&amp;G83&amp;" "&amp;F83</f>
+        <v>star-shaped red sticker</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6" t="str">
+        <f>VLOOKUP($B84,FillGen!$A$1:$D133,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G84" s="6" t="str">
+        <f>VLOOKUP($B84,FillGen!$A$1:$D133,2,FALSE)</f>
+        <v>sisters</v>
+      </c>
+      <c r="H84" s="6" t="str">
+        <f>VLOOKUP($B84,FillGen!$A$1:$D133,3,FALSE)</f>
+        <v>brothers</v>
+      </c>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6" t="str">
+        <f>VLOOKUP($B85,FillGen!$A$1:$D134,4,FALSE)</f>
+        <v>and</v>
+      </c>
+      <c r="G85" s="6" t="str">
+        <f>VLOOKUP($B85,FillGen!$A$1:$D134,2,FALSE)</f>
+        <v>dolphins</v>
+      </c>
+      <c r="H85" s="6" t="str">
+        <f>VLOOKUP($B85,FillGen!$A$1:$D134,3,FALSE)</f>
+        <v>whales</v>
+      </c>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6" t="str">
+        <f>VLOOKUP($B86,FillGen!$A$1:$D135,4,FALSE)</f>
+        <v>poked</v>
+      </c>
+      <c r="G86" s="6" t="str">
+        <f>VLOOKUP($B86,FillGen!$A$1:$D135,2,FALSE)</f>
+        <v>Ella</v>
+      </c>
+      <c r="H86" s="6" t="str">
+        <f>VLOOKUP($B86,FillGen!$A$1:$D135,3,FALSE)</f>
+        <v>Jesse</v>
+      </c>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6">
+        <v>4</v>
+      </c>
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I87" s="6" t="str">
+        <f>G87&amp;" "&amp;H87&amp;" "&amp;F87</f>
+        <v>oval ink stain</v>
+      </c>
+      <c r="J87" s="7" t="str">
+        <f>H87&amp;" "&amp;G87&amp;" "&amp;F87</f>
+        <v>ink oval stain</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B87">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
+++ b/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="512">
   <si>
     <t>ItemNumb</t>
   </si>
@@ -1570,6 +1570,15 @@
   </si>
   <si>
     <t>SizCol_6</t>
+  </si>
+  <si>
+    <t>PredictedOrderSide</t>
+  </si>
+  <si>
+    <t>PredictedOrderSide: For Target Items, Order 1 is the order predicted by the memory data</t>
+  </si>
+  <si>
+    <t>NoPref</t>
   </si>
 </sst>
 </file>
@@ -3425,7 +3434,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3537,6 +3546,11 @@
         <v>108</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>510</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>219</v>
@@ -3818,7 +3832,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7067,7 +7081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7075,7 +7089,7 @@
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7111,7 +7125,7 @@
         <v>119</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>147</v>
+        <v>509</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>336</v>
@@ -7257,7 +7271,7 @@
         <v>388</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>388</v>
@@ -7333,7 +7347,7 @@
         <v>426</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>426</v>
@@ -7444,7 +7458,7 @@
         <v>382</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>381</v>
@@ -7596,7 +7610,7 @@
         <v>398</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>398</v>
@@ -7707,7 +7721,7 @@
         <v>416</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>416</v>
@@ -7859,7 +7873,7 @@
         <v>497</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>439</v>
@@ -7935,7 +7949,7 @@
         <v>420</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>419</v>
@@ -8011,7 +8025,7 @@
         <v>392</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>391</v>
@@ -8128,7 +8142,7 @@
         <v>434</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>433</v>
@@ -8198,7 +8212,7 @@
         <v>345</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>344</v>
@@ -8274,7 +8288,7 @@
         <v>380</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>380</v>
@@ -8309,7 +8323,7 @@
         <v>438</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>437</v>
@@ -8420,7 +8434,7 @@
         <v>424</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>423</v>
@@ -8496,7 +8510,7 @@
         <v>378</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>378</v>
@@ -8648,7 +8662,7 @@
         <v>410</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>409</v>
@@ -8683,7 +8697,7 @@
         <v>396</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>395</v>
@@ -8829,7 +8843,7 @@
         <v>394</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>394</v>
@@ -8905,7 +8919,7 @@
         <v>430</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>429</v>
@@ -8940,7 +8954,7 @@
         <v>432</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>431</v>
@@ -8975,7 +8989,7 @@
         <v>390</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>390</v>
@@ -9010,7 +9024,7 @@
         <v>348</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>347</v>
@@ -9127,7 +9141,7 @@
         <v>412</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>411</v>
@@ -9238,7 +9252,7 @@
         <v>384</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>383</v>
@@ -9314,7 +9328,7 @@
         <v>422</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>422</v>
@@ -9349,7 +9363,7 @@
         <v>400</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>399</v>
@@ -9460,7 +9474,7 @@
         <v>428</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>428</v>
@@ -9606,7 +9620,7 @@
         <v>404</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>403</v>
@@ -9723,7 +9737,7 @@
         <v>418</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>418</v>
@@ -9875,7 +9889,7 @@
         <v>402</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>402</v>
@@ -9951,7 +9965,7 @@
         <v>408</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>408</v>
@@ -9986,7 +10000,7 @@
         <v>386</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>386</v>
@@ -10021,7 +10035,7 @@
         <v>406</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>406</v>
@@ -10167,7 +10181,7 @@
         <v>388</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>388</v>
@@ -10243,7 +10257,7 @@
         <v>426</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>426</v>
@@ -10354,7 +10368,7 @@
         <v>382</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>381</v>
@@ -10506,7 +10520,7 @@
         <v>398</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>398</v>
@@ -10617,7 +10631,7 @@
         <v>416</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>416</v>
@@ -10769,7 +10783,7 @@
         <v>497</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>439</v>
@@ -10845,7 +10859,7 @@
         <v>420</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>419</v>
@@ -10921,7 +10935,7 @@
         <v>392</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>391</v>
@@ -11038,7 +11052,7 @@
         <v>434</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>433</v>
@@ -11108,7 +11122,7 @@
         <v>345</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>344</v>
@@ -11184,7 +11198,7 @@
         <v>380</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>380</v>
@@ -11219,7 +11233,7 @@
         <v>438</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>437</v>
@@ -11330,7 +11344,7 @@
         <v>424</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>423</v>
@@ -11406,7 +11420,7 @@
         <v>378</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>378</v>
@@ -11558,7 +11572,7 @@
         <v>410</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>409</v>
@@ -11593,7 +11607,7 @@
         <v>396</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>395</v>
@@ -11739,7 +11753,7 @@
         <v>394</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>394</v>
@@ -11815,7 +11829,7 @@
         <v>430</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>429</v>
@@ -11850,7 +11864,7 @@
         <v>432</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>431</v>
@@ -11885,7 +11899,7 @@
         <v>390</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>390</v>
@@ -11920,7 +11934,7 @@
         <v>348</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>347</v>
@@ -12037,7 +12051,7 @@
         <v>412</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>411</v>
@@ -12148,7 +12162,7 @@
         <v>384</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>383</v>
@@ -12224,7 +12238,7 @@
         <v>422</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>422</v>
@@ -12259,7 +12273,7 @@
         <v>400</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>399</v>
@@ -12370,7 +12384,7 @@
         <v>428</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>428</v>
@@ -12516,7 +12530,7 @@
         <v>404</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>403</v>
@@ -12633,7 +12647,7 @@
         <v>418</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>418</v>
@@ -12785,7 +12799,7 @@
         <v>402</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>402</v>
@@ -12861,7 +12875,7 @@
         <v>408</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>408</v>
@@ -12896,7 +12910,7 @@
         <v>386</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>386</v>
@@ -12931,7 +12945,7 @@
         <v>406</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>406</v>
@@ -13077,7 +13091,7 @@
         <v>388</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>388</v>
@@ -13153,7 +13167,7 @@
         <v>426</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>426</v>
@@ -13264,7 +13278,7 @@
         <v>382</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>381</v>
@@ -13416,7 +13430,7 @@
         <v>398</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L170" s="2" t="s">
         <v>398</v>
@@ -13527,7 +13541,7 @@
         <v>416</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>416</v>
@@ -13679,7 +13693,7 @@
         <v>497</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>439</v>
@@ -13755,7 +13769,7 @@
         <v>420</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>419</v>
@@ -13831,7 +13845,7 @@
         <v>392</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>391</v>
@@ -13948,7 +13962,7 @@
         <v>434</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>433</v>
@@ -14018,7 +14032,7 @@
         <v>345</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>344</v>
@@ -14094,7 +14108,7 @@
         <v>380</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>380</v>
@@ -14129,7 +14143,7 @@
         <v>438</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>437</v>
@@ -14240,7 +14254,7 @@
         <v>424</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>423</v>
@@ -14316,7 +14330,7 @@
         <v>378</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>378</v>
@@ -14468,7 +14482,7 @@
         <v>410</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>409</v>
@@ -14503,7 +14517,7 @@
         <v>396</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>395</v>
@@ -14649,7 +14663,7 @@
         <v>394</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>394</v>
@@ -14725,7 +14739,7 @@
         <v>430</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>429</v>
@@ -14760,7 +14774,7 @@
         <v>432</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>431</v>
@@ -14795,7 +14809,7 @@
         <v>390</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>390</v>
@@ -14830,7 +14844,7 @@
         <v>348</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>347</v>
@@ -14947,7 +14961,7 @@
         <v>412</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L211" s="2" t="s">
         <v>411</v>
@@ -15058,7 +15072,7 @@
         <v>384</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L214" s="2" t="s">
         <v>383</v>
@@ -15134,7 +15148,7 @@
         <v>422</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L216" s="2" t="s">
         <v>422</v>
@@ -15169,7 +15183,7 @@
         <v>400</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L217" s="2" t="s">
         <v>399</v>
@@ -15280,7 +15294,7 @@
         <v>428</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L220" s="2" t="s">
         <v>428</v>
@@ -15426,7 +15440,7 @@
         <v>404</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L224" s="2" t="s">
         <v>403</v>
@@ -15543,7 +15557,7 @@
         <v>418</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L227" s="2" t="s">
         <v>418</v>
@@ -15695,7 +15709,7 @@
         <v>402</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L231" s="2" t="s">
         <v>402</v>
@@ -15771,7 +15785,7 @@
         <v>408</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L233" s="2" t="s">
         <v>408</v>
@@ -15806,7 +15820,7 @@
         <v>386</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L234" s="2" t="s">
         <v>386</v>
@@ -15841,7 +15855,7 @@
         <v>406</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L235" s="2" t="s">
         <v>406</v>
@@ -15987,7 +16001,7 @@
         <v>388</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L239" s="2" t="s">
         <v>388</v>
@@ -16063,7 +16077,7 @@
         <v>426</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L241" s="2" t="s">
         <v>426</v>
@@ -16174,7 +16188,7 @@
         <v>382</v>
       </c>
       <c r="K244" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L244" s="2" t="s">
         <v>381</v>
@@ -16326,7 +16340,7 @@
         <v>398</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L248" s="2" t="s">
         <v>398</v>
@@ -16437,7 +16451,7 @@
         <v>416</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L251" s="2" t="s">
         <v>416</v>
@@ -16589,7 +16603,7 @@
         <v>497</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L255" s="2" t="s">
         <v>439</v>
@@ -16665,7 +16679,7 @@
         <v>420</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L257" s="2" t="s">
         <v>419</v>
@@ -16741,7 +16755,7 @@
         <v>392</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L259" s="2" t="s">
         <v>391</v>
@@ -16858,7 +16872,7 @@
         <v>434</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L262" s="2" t="s">
         <v>433</v>
@@ -16928,7 +16942,7 @@
         <v>345</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L264" s="2" t="s">
         <v>344</v>
@@ -17004,7 +17018,7 @@
         <v>380</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L266" s="2" t="s">
         <v>380</v>
@@ -17039,7 +17053,7 @@
         <v>438</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L267" s="2" t="s">
         <v>437</v>
@@ -17150,7 +17164,7 @@
         <v>424</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L270" s="2" t="s">
         <v>423</v>
@@ -17226,7 +17240,7 @@
         <v>378</v>
       </c>
       <c r="K272" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L272" s="2" t="s">
         <v>378</v>
@@ -17378,7 +17392,7 @@
         <v>410</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L276" s="2" t="s">
         <v>409</v>
@@ -17413,7 +17427,7 @@
         <v>396</v>
       </c>
       <c r="K277" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L277" s="2" t="s">
         <v>395</v>
@@ -17559,7 +17573,7 @@
         <v>394</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L281" s="2" t="s">
         <v>394</v>
@@ -17635,7 +17649,7 @@
         <v>430</v>
       </c>
       <c r="K283" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L283" s="2" t="s">
         <v>429</v>
@@ -17670,7 +17684,7 @@
         <v>432</v>
       </c>
       <c r="K284" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L284" s="2" t="s">
         <v>431</v>
@@ -17705,7 +17719,7 @@
         <v>390</v>
       </c>
       <c r="K285" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L285" s="2" t="s">
         <v>390</v>
@@ -17740,7 +17754,7 @@
         <v>348</v>
       </c>
       <c r="K286" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L286" s="2" t="s">
         <v>347</v>
@@ -17857,7 +17871,7 @@
         <v>412</v>
       </c>
       <c r="K289" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L289" s="2" t="s">
         <v>411</v>
@@ -17968,7 +17982,7 @@
         <v>384</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L292" s="2" t="s">
         <v>383</v>
@@ -18044,7 +18058,7 @@
         <v>422</v>
       </c>
       <c r="K294" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L294" s="2" t="s">
         <v>422</v>
@@ -18079,7 +18093,7 @@
         <v>400</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L295" s="2" t="s">
         <v>399</v>
@@ -18190,7 +18204,7 @@
         <v>428</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L298" s="2" t="s">
         <v>428</v>
@@ -18336,7 +18350,7 @@
         <v>404</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L302" s="2" t="s">
         <v>403</v>
@@ -18453,7 +18467,7 @@
         <v>418</v>
       </c>
       <c r="K305" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L305" s="2" t="s">
         <v>418</v>
@@ -18605,7 +18619,7 @@
         <v>402</v>
       </c>
       <c r="K309" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L309" s="2" t="s">
         <v>402</v>
@@ -18681,7 +18695,7 @@
         <v>408</v>
       </c>
       <c r="K311" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L311" s="2" t="s">
         <v>408</v>
@@ -18716,7 +18730,7 @@
         <v>386</v>
       </c>
       <c r="K312" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L312" s="2" t="s">
         <v>386</v>
@@ -18751,7 +18765,7 @@
         <v>406</v>
       </c>
       <c r="K313" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L313" s="2" t="s">
         <v>406</v>
@@ -18897,7 +18911,7 @@
         <v>388</v>
       </c>
       <c r="K317" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L317" s="2" t="s">
         <v>388</v>
@@ -18973,7 +18987,7 @@
         <v>426</v>
       </c>
       <c r="K319" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L319" s="2" t="s">
         <v>426</v>
@@ -19084,7 +19098,7 @@
         <v>382</v>
       </c>
       <c r="K322" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L322" s="2" t="s">
         <v>381</v>
@@ -19236,7 +19250,7 @@
         <v>398</v>
       </c>
       <c r="K326" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L326" s="2" t="s">
         <v>398</v>
@@ -19347,7 +19361,7 @@
         <v>416</v>
       </c>
       <c r="K329" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L329" s="2" t="s">
         <v>416</v>
@@ -19499,7 +19513,7 @@
         <v>497</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L333" s="2" t="s">
         <v>439</v>
@@ -19575,7 +19589,7 @@
         <v>420</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L335" s="2" t="s">
         <v>419</v>
@@ -19651,7 +19665,7 @@
         <v>392</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L337" s="2" t="s">
         <v>391</v>
@@ -19768,7 +19782,7 @@
         <v>434</v>
       </c>
       <c r="K340" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L340" s="2" t="s">
         <v>433</v>
@@ -19838,7 +19852,7 @@
         <v>345</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L342" s="2" t="s">
         <v>344</v>
@@ -19914,7 +19928,7 @@
         <v>380</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L344" s="2" t="s">
         <v>380</v>
@@ -19949,7 +19963,7 @@
         <v>438</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L345" s="2" t="s">
         <v>437</v>
@@ -20060,7 +20074,7 @@
         <v>424</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L348" s="2" t="s">
         <v>423</v>
@@ -20136,7 +20150,7 @@
         <v>378</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L350" s="2" t="s">
         <v>378</v>
@@ -20288,7 +20302,7 @@
         <v>410</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L354" s="2" t="s">
         <v>409</v>
@@ -20323,7 +20337,7 @@
         <v>396</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L355" s="2" t="s">
         <v>395</v>
@@ -20469,7 +20483,7 @@
         <v>394</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L359" s="2" t="s">
         <v>394</v>
@@ -20545,7 +20559,7 @@
         <v>430</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L361" s="2" t="s">
         <v>429</v>
@@ -20580,7 +20594,7 @@
         <v>432</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L362" s="2" t="s">
         <v>431</v>
@@ -20615,7 +20629,7 @@
         <v>390</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L363" s="2" t="s">
         <v>390</v>
@@ -20650,7 +20664,7 @@
         <v>348</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L364" s="2" t="s">
         <v>347</v>
@@ -20767,7 +20781,7 @@
         <v>412</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L367" s="2" t="s">
         <v>411</v>
@@ -20878,7 +20892,7 @@
         <v>384</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L370" s="2" t="s">
         <v>383</v>
@@ -20954,7 +20968,7 @@
         <v>422</v>
       </c>
       <c r="K372" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L372" s="2" t="s">
         <v>422</v>
@@ -20989,7 +21003,7 @@
         <v>400</v>
       </c>
       <c r="K373" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L373" s="2" t="s">
         <v>399</v>
@@ -21100,7 +21114,7 @@
         <v>428</v>
       </c>
       <c r="K376" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L376" s="2" t="s">
         <v>428</v>
@@ -21246,7 +21260,7 @@
         <v>404</v>
       </c>
       <c r="K380" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L380" s="2" t="s">
         <v>403</v>
@@ -21363,7 +21377,7 @@
         <v>418</v>
       </c>
       <c r="K383" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L383" s="2" t="s">
         <v>418</v>
@@ -21515,7 +21529,7 @@
         <v>402</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L387" s="2" t="s">
         <v>402</v>
@@ -21591,7 +21605,7 @@
         <v>408</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L389" s="2" t="s">
         <v>408</v>
@@ -21626,7 +21640,7 @@
         <v>386</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L390" s="2" t="s">
         <v>386</v>
@@ -21661,7 +21675,7 @@
         <v>406</v>
       </c>
       <c r="K391" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L391" s="2" t="s">
         <v>406</v>
@@ -21807,7 +21821,7 @@
         <v>388</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L395" s="2" t="s">
         <v>388</v>
@@ -21883,7 +21897,7 @@
         <v>426</v>
       </c>
       <c r="K397" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L397" s="2" t="s">
         <v>426</v>
@@ -21994,7 +22008,7 @@
         <v>382</v>
       </c>
       <c r="K400" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L400" s="2" t="s">
         <v>381</v>
@@ -22146,7 +22160,7 @@
         <v>398</v>
       </c>
       <c r="K404" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L404" s="2" t="s">
         <v>398</v>
@@ -22257,7 +22271,7 @@
         <v>416</v>
       </c>
       <c r="K407" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L407" s="2" t="s">
         <v>416</v>
@@ -22409,7 +22423,7 @@
         <v>497</v>
       </c>
       <c r="K411" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L411" s="2" t="s">
         <v>439</v>
@@ -22485,7 +22499,7 @@
         <v>420</v>
       </c>
       <c r="K413" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L413" s="2" t="s">
         <v>419</v>
@@ -22561,7 +22575,7 @@
         <v>392</v>
       </c>
       <c r="K415" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L415" s="2" t="s">
         <v>391</v>
@@ -22678,7 +22692,7 @@
         <v>434</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L418" s="2" t="s">
         <v>433</v>
@@ -22748,7 +22762,7 @@
         <v>345</v>
       </c>
       <c r="K420" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L420" s="2" t="s">
         <v>344</v>
@@ -22824,7 +22838,7 @@
         <v>380</v>
       </c>
       <c r="K422" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L422" s="2" t="s">
         <v>380</v>
@@ -22859,7 +22873,7 @@
         <v>438</v>
       </c>
       <c r="K423" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L423" s="2" t="s">
         <v>437</v>
@@ -22970,7 +22984,7 @@
         <v>424</v>
       </c>
       <c r="K426" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L426" s="2" t="s">
         <v>423</v>
@@ -23046,7 +23060,7 @@
         <v>378</v>
       </c>
       <c r="K428" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L428" s="2" t="s">
         <v>378</v>
@@ -23198,7 +23212,7 @@
         <v>410</v>
       </c>
       <c r="K432" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L432" s="2" t="s">
         <v>409</v>
@@ -23233,7 +23247,7 @@
         <v>396</v>
       </c>
       <c r="K433" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L433" s="2" t="s">
         <v>395</v>
@@ -23379,7 +23393,7 @@
         <v>394</v>
       </c>
       <c r="K437" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L437" s="2" t="s">
         <v>394</v>
@@ -23455,7 +23469,7 @@
         <v>430</v>
       </c>
       <c r="K439" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L439" s="2" t="s">
         <v>429</v>
@@ -23490,7 +23504,7 @@
         <v>432</v>
       </c>
       <c r="K440" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L440" s="2" t="s">
         <v>431</v>
@@ -23525,7 +23539,7 @@
         <v>390</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L441" s="2" t="s">
         <v>390</v>
@@ -23560,7 +23574,7 @@
         <v>348</v>
       </c>
       <c r="K442" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L442" s="2" t="s">
         <v>347</v>
@@ -23677,7 +23691,7 @@
         <v>412</v>
       </c>
       <c r="K445" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L445" s="2" t="s">
         <v>411</v>
@@ -23788,7 +23802,7 @@
         <v>384</v>
       </c>
       <c r="K448" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L448" s="2" t="s">
         <v>383</v>
@@ -23864,7 +23878,7 @@
         <v>422</v>
       </c>
       <c r="K450" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L450" s="2" t="s">
         <v>422</v>
@@ -23899,7 +23913,7 @@
         <v>400</v>
       </c>
       <c r="K451" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L451" s="2" t="s">
         <v>399</v>
@@ -24010,7 +24024,7 @@
         <v>428</v>
       </c>
       <c r="K454" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L454" s="2" t="s">
         <v>428</v>
@@ -24156,7 +24170,7 @@
         <v>404</v>
       </c>
       <c r="K458" s="2" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="L458" s="2" t="s">
         <v>403</v>
@@ -24273,7 +24287,7 @@
         <v>418</v>
       </c>
       <c r="K461" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L461" s="2" t="s">
         <v>418</v>
@@ -24425,7 +24439,7 @@
         <v>402</v>
       </c>
       <c r="K465" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L465" s="2" t="s">
         <v>402</v>
@@ -24501,7 +24515,7 @@
         <v>408</v>
       </c>
       <c r="K467" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L467" s="2" t="s">
         <v>408</v>
@@ -24536,7 +24550,7 @@
         <v>386</v>
       </c>
       <c r="K468" s="2" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="L468" s="2" t="s">
         <v>386</v>
@@ -24571,7 +24585,7 @@
         <v>406</v>
       </c>
       <c r="K469" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L469" s="2" t="s">
         <v>406</v>

--- a/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
+++ b/PerceptionRating/AOP_PerceptionRatings_ExperimentDesign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PerceptionMemory_Items" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5531" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="498">
   <si>
     <t>ItemNumb</t>
   </si>
@@ -1531,6 +1531,12 @@
   </si>
   <si>
     <t>There was an error in counterbalancing sides. The predicted order side (Order 1) appears on the left 16 times and on the Right 14 times.</t>
+  </si>
+  <si>
+    <t>better: Massive spiral staircause</t>
+  </si>
+  <si>
+    <t>better: Enormous triangular cake</t>
   </si>
 </sst>
 </file>
@@ -3584,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4459,7 +4465,9 @@
       <c r="I29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="3" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -4519,7 +4527,9 @@
       <c r="I31" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="3" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E32" s="2"/>
@@ -6827,7 +6837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
